--- a/model_lca/LCA_mfh02.xlsx
+++ b/model_lca/LCA_mfh02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mfh02" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'mfh02'!$A$1:$J$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -810,7 +810,7 @@
                   <c:v>6.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2024974999999998</c:v>
+                  <c:v>6.1276554999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,7 +2252,7 @@
                   <c:v>6.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2024974999999998</c:v>
+                  <c:v>6.1276554999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4773,2795 +4773,37 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Component wise inventories"/>
-      <sheetName val="MI wise inventories"/>
+      <sheetName val="Building_info_Viola"/>
+      <sheetName val="Construction_Heating"/>
+      <sheetName val="components_thickness"/>
+      <sheetName val="MI_heating_LCAdata"/>
+      <sheetName val="U-Values_components"/>
+      <sheetName val="U-Values_final"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v xml:space="preserve">12 cm X 16 cm timber frame construction </v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>Glued laminated timber, MF bonded, wet area</v>
-          </cell>
-          <cell r="I2">
-            <v>470</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K2">
-            <v>0.48499999999999999</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>3-layer solid wood panel</v>
-          </cell>
-          <cell r="B3">
-            <v>60</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>3-layer solid wood panel, PVAc bonded</v>
-          </cell>
-          <cell r="I3">
-            <v>470</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K3">
-            <v>0.52300000000000002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>3-layer solid wood panel PVAc-bound</v>
-          </cell>
-          <cell r="B4">
-            <v>60</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>3-layer solid wood panel, PVAc bonded</v>
-          </cell>
-          <cell r="I4">
-            <v>470</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K4">
-            <v>0.52300000000000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>5-layer insulated (glass wool) wood panel</v>
-          </cell>
-          <cell r="B5">
-            <v>60</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>3-layer solid wood panel, PVAc bonded</v>
-          </cell>
-          <cell r="I5">
-            <v>470</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K5">
-            <v>0.52300000000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v xml:space="preserve">8cm x 12cm timber frame construction with intermediate rock wool insulation </v>
-          </cell>
-          <cell r="B6"/>
-          <cell r="H6" t="str">
-            <v>Glued laminated timber, MF bonded, wet area</v>
-          </cell>
-          <cell r="I6">
-            <v>470</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K6">
-            <v>0.48499999999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7"/>
-          <cell r="B7"/>
-          <cell r="H7" t="str">
-            <v>rockwool</v>
-          </cell>
-          <cell r="I7">
-            <v>60</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K7">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v xml:space="preserve">Adhesive mortar </v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>Organic construction adhesive/embedding mortar</v>
-          </cell>
-          <cell r="I8">
-            <v>1670</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K8">
-            <v>0.75800000000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Air cavity</v>
-          </cell>
-          <cell r="B9"/>
-          <cell r="I9"/>
-          <cell r="J9"/>
-          <cell r="K9"/>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Anhydrite floor</v>
-          </cell>
-          <cell r="B10"/>
-          <cell r="H10" t="str">
-            <v>Underlay anhydrite, 60 mm</v>
-          </cell>
-          <cell r="I10">
-            <v>2000</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K10">
-            <v>8.6999999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Base plaster</v>
-          </cell>
-          <cell r="I11"/>
-          <cell r="J11"/>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Bitumen sealing</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>Bitumen emulsion, 1 coat</v>
-          </cell>
-          <cell r="I12">
-            <v>0.25</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v xml:space="preserve">m2 </v>
-          </cell>
-          <cell r="K12">
-            <v>0.70599999999999996</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Bitumen waterproofing membrane GV2</v>
-          </cell>
-          <cell r="B13">
-            <v>30</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>hot bitumen</v>
-          </cell>
-          <cell r="I13">
-            <v>1000</v>
-          </cell>
-          <cell r="J13" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K13">
-            <v>3.06</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Bituminous geomembrane</v>
-          </cell>
-          <cell r="K14"/>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Bituminous vapour barrier</v>
-          </cell>
-          <cell r="K15"/>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Box beam element with intermediate cellu- lose insulation</v>
-          </cell>
-          <cell r="B16"/>
-          <cell r="K16"/>
-        </row>
+      <sheetData sheetId="0" refreshError="1">
         <row r="17">
-          <cell r="A17" t="str">
-            <v>Brickwork</v>
-          </cell>
-          <cell r="B17"/>
-          <cell r="H17" t="str">
-            <v>brick</v>
-          </cell>
-          <cell r="I17">
-            <v>900</v>
-          </cell>
-          <cell r="J17" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K17">
-            <v>0.25800000000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Brickwork (concrete brick)</v>
-          </cell>
-          <cell r="H18" t="str">
-            <v>concrete brick</v>
-          </cell>
-          <cell r="I18">
-            <v>2300</v>
-          </cell>
-          <cell r="J18" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K18">
-            <v>0.217</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v xml:space="preserve">Cellulose fibres injected  </v>
-          </cell>
-          <cell r="B19"/>
-          <cell r="H19" t="str">
-            <v>cellulose fibers</v>
-          </cell>
-          <cell r="I19" t="str">
-            <v xml:space="preserve">35-60 </v>
-          </cell>
-          <cell r="J19" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K19">
-            <v>0.25700000000000001</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v xml:space="preserve">cellulose insulation, timber ratio 6% </v>
-          </cell>
-          <cell r="B20"/>
-          <cell r="K20"/>
-        </row>
-        <row r="21">
-          <cell r="A21"/>
-          <cell r="B21"/>
-          <cell r="K21"/>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Cement cast plaster floor</v>
-          </cell>
-          <cell r="B22">
-            <v>30</v>
-          </cell>
-          <cell r="H22" t="str">
-            <v>Cement subfloor, 85 mm</v>
-          </cell>
-          <cell r="I22">
-            <v>1850</v>
-          </cell>
-          <cell r="J22" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K22">
-            <v>0.125</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Cement mortar</v>
-          </cell>
-          <cell r="K23"/>
-        </row>
+          <cell r="C17">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>350.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1">
         <row r="24">
-          <cell r="A24" t="str">
-            <v>Cement slates</v>
-          </cell>
-          <cell r="B24"/>
-          <cell r="K24"/>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Ceramics</v>
-          </cell>
-          <cell r="H25" t="str">
-            <v>ceramic/stoneware plate</v>
-          </cell>
-          <cell r="I25">
-            <v>2600</v>
-          </cell>
-          <cell r="J25" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K25">
-            <v>0.77700000000000002</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Cladding of solid Spruce / Fir / Larch</v>
-          </cell>
-          <cell r="K26"/>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v xml:space="preserve">Clinker quarter brick </v>
-          </cell>
-          <cell r="B27"/>
-          <cell r="H27" t="str">
-            <v>clay bricks</v>
-          </cell>
-          <cell r="I27">
-            <v>1700</v>
-          </cell>
-          <cell r="J27" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K27">
-            <v>0.375</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v xml:space="preserve">Coating + polystyrene (XPS) (30 kg/m³) </v>
-          </cell>
-          <cell r="H28" t="str">
-            <v>Polystyrene extruded (XPS)</v>
-          </cell>
-          <cell r="I28" t="str">
-            <v xml:space="preserve">30-35 </v>
-          </cell>
-          <cell r="J28" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K28">
-            <v>14.5</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Concrete 8 / 10 (lean concrete)</v>
-          </cell>
-          <cell r="B29"/>
-          <cell r="H29" t="str">
-            <v>lean concrete (without reinforcement)</v>
-          </cell>
-          <cell r="I29">
-            <v>2150</v>
-          </cell>
-          <cell r="J29" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K29">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Concrete bond</v>
-          </cell>
-          <cell r="B30"/>
-          <cell r="K30"/>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Concrete C 8 / 10 (lean concrete)</v>
-          </cell>
-          <cell r="H31" t="str">
-            <v>lean concrete (without reinforcement)</v>
-          </cell>
-          <cell r="I31">
-            <v>2150</v>
-          </cell>
-          <cell r="J31" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K31">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Concrete floor slab (Fe 80 kg/m³)</v>
-          </cell>
-          <cell r="B32">
-            <v>60</v>
-          </cell>
-          <cell r="H32" t="str">
-            <v>civil engineering concrete (without reinforcement)</v>
-          </cell>
-          <cell r="I32">
-            <v>2350</v>
-          </cell>
-          <cell r="J32" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K32">
-            <v>1.4E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33"/>
-          <cell r="B33">
-            <v>60</v>
-          </cell>
-          <cell r="H33" t="str">
-            <v>reinforcement steel</v>
-          </cell>
-          <cell r="I33">
-            <v>80</v>
-          </cell>
-          <cell r="J33" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K33">
-            <v>0.68200000000000005</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Concrete slab (FE 80 kg/m³)</v>
-          </cell>
-          <cell r="B34">
-            <v>60</v>
-          </cell>
-          <cell r="H34" t="str">
-            <v>civil engineering concrete (without reinforcement)</v>
-          </cell>
-          <cell r="I34">
-            <v>2350</v>
-          </cell>
-          <cell r="J34" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K34">
-            <v>1.4E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35"/>
-          <cell r="B35">
-            <v>60</v>
-          </cell>
-          <cell r="H35" t="str">
-            <v>reinforcement steel</v>
-          </cell>
-          <cell r="I35">
-            <v>80</v>
-          </cell>
-          <cell r="J35" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K35">
-            <v>0.68200000000000005</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Concrete slabs</v>
-          </cell>
-          <cell r="B36">
-            <v>60</v>
-          </cell>
-          <cell r="H36" t="str">
-            <v>civil engineering concrete (without reinforcement)</v>
-          </cell>
-          <cell r="I36">
-            <v>2350</v>
-          </cell>
-          <cell r="J36" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K36">
-            <v>1.4E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37"/>
-          <cell r="B37">
-            <v>60</v>
-          </cell>
-          <cell r="H37" t="str">
-            <v>reinforcement steel</v>
-          </cell>
-          <cell r="I37">
-            <v>80</v>
-          </cell>
-          <cell r="J37" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K37">
-            <v>0.68200000000000005</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Concrete wall (FE 60 kg/m³)</v>
-          </cell>
-          <cell r="B38">
-            <v>60</v>
-          </cell>
-          <cell r="H38" t="str">
-            <v>civil engineering concrete (without reinforcement)</v>
-          </cell>
-          <cell r="I38">
-            <v>2350</v>
-          </cell>
-          <cell r="J38" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K38">
-            <v>1.4E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>60</v>
-          </cell>
-          <cell r="H39" t="str">
-            <v>reinforcement steel</v>
-          </cell>
-          <cell r="I39">
-            <v>80</v>
-          </cell>
-          <cell r="J39" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K39">
-            <v>0.68200000000000005</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Concrete wall (FE 80 kg/m³)</v>
-          </cell>
-          <cell r="B40">
-            <v>60</v>
-          </cell>
-          <cell r="H40" t="str">
-            <v>civil engineering concrete (without reinforcement)</v>
-          </cell>
-          <cell r="I40">
-            <v>2350</v>
-          </cell>
-          <cell r="J40" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K40">
-            <v>1.4E-2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>60</v>
-          </cell>
-          <cell r="H41" t="str">
-            <v>reinforcement steel</v>
-          </cell>
-          <cell r="I41">
-            <v>80</v>
-          </cell>
-          <cell r="J41" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K41">
-            <v>0.68200000000000005</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>Drainage slab (poor concrete)</v>
-          </cell>
-          <cell r="B42">
-            <v>30</v>
-          </cell>
-          <cell r="H42" t="str">
-            <v>lean concrete (without reinforcement)</v>
-          </cell>
-          <cell r="I42">
-            <v>2150</v>
-          </cell>
-          <cell r="J42" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K42">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Edge-glued timber floor</v>
-          </cell>
-          <cell r="B43"/>
-          <cell r="K43"/>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>Expanded polystyrene (EPS) (15 kg/m³)</v>
-          </cell>
-          <cell r="B44">
-            <v>30</v>
-          </cell>
-          <cell r="H44" t="str">
-            <v>Expanded polystyrene (EPS)</v>
-          </cell>
-          <cell r="I44">
-            <v>15</v>
-          </cell>
-          <cell r="J44" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K44">
-            <v>7.64</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Expanded polystyrene (EPS) (30 kg/m³)</v>
-          </cell>
-          <cell r="B45">
-            <v>30</v>
-          </cell>
-          <cell r="H45" t="str">
-            <v>Expanded polystyrene (EPS)</v>
-          </cell>
-          <cell r="I45">
-            <v>30</v>
-          </cell>
-          <cell r="J45" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K45">
-            <v>7.64</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Expanded polystyrene (EPS) (35 kg/m³)</v>
-          </cell>
-          <cell r="B46">
-            <v>30</v>
-          </cell>
-          <cell r="H46" t="str">
-            <v>Expanded polystyrene (EPS)</v>
-          </cell>
-          <cell r="I46">
-            <v>35</v>
-          </cell>
-          <cell r="J46" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K46">
-            <v>7.64</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>Extruded polystyrene (XPS) (30 kg/m³)</v>
-          </cell>
-          <cell r="B47">
-            <v>30</v>
-          </cell>
-          <cell r="H47" t="str">
-            <v>Polystyrene extruded (XPS)</v>
-          </cell>
-          <cell r="I47">
-            <v>30</v>
-          </cell>
-          <cell r="J47" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K47">
-            <v>14.5</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>Extruded polystyrene (XPS) (35 kg/m³)</v>
-          </cell>
-          <cell r="B48">
-            <v>30</v>
-          </cell>
-          <cell r="H48" t="str">
-            <v>Polystyrene extruded (XPS)</v>
-          </cell>
-          <cell r="I48">
-            <v>35</v>
-          </cell>
-          <cell r="J48" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K48">
-            <v>14.5</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>Fibre board</v>
-          </cell>
-          <cell r="B49">
-            <v>30</v>
-          </cell>
-          <cell r="H49" t="str">
-            <v>Medium density fibreboard (MDF), UF bonded</v>
-          </cell>
-          <cell r="I49">
-            <v>685</v>
-          </cell>
-          <cell r="J49" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K49">
-            <v>1.04</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50"/>
-          <cell r="B50"/>
-          <cell r="H50" t="str">
-            <v>rockwool</v>
-          </cell>
-          <cell r="I50">
-            <v>60</v>
-          </cell>
-          <cell r="J50" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K50">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v xml:space="preserve">Fibre board Polypropylene sheet </v>
-          </cell>
-          <cell r="B51">
-            <v>30</v>
-          </cell>
-          <cell r="H51" t="str">
-            <v>Polypropylene (PP)</v>
-          </cell>
-          <cell r="I51">
-            <v>910</v>
-          </cell>
-          <cell r="J51" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K51">
-            <v>5.43</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>Fibre board soft</v>
-          </cell>
-          <cell r="K52"/>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>Fibre board, emission-free ("Living board")</v>
-          </cell>
-          <cell r="B53"/>
-          <cell r="K53"/>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>Fibre cement board</v>
-          </cell>
-          <cell r="B54"/>
-          <cell r="K54"/>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>Fibre cement facing tile</v>
-          </cell>
-          <cell r="K55"/>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>Fibre cement roof slate</v>
-          </cell>
-          <cell r="B56"/>
-          <cell r="K56"/>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>Flagstone in a bed of crushed stones</v>
-          </cell>
-          <cell r="K57"/>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>Flagstones</v>
-          </cell>
-          <cell r="B58"/>
-          <cell r="K58"/>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>Floor slab element of plywood</v>
-          </cell>
-          <cell r="B59"/>
-          <cell r="K59"/>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>Floor slab element of plywood filled with crushed stones</v>
-          </cell>
-          <cell r="K60"/>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>Floor slab element of plywood with intermediate rock wool insulation</v>
-          </cell>
-          <cell r="K61"/>
-        </row>
-        <row r="62">
-          <cell r="A62"/>
-          <cell r="K62"/>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>Flooring of polyurethane (PU)</v>
-          </cell>
-          <cell r="K63"/>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>Foam glass</v>
-          </cell>
-          <cell r="H64" t="str">
-            <v>foam glass</v>
-          </cell>
-          <cell r="I64" t="str">
-            <v xml:space="preserve">100-165 </v>
-          </cell>
-          <cell r="J64" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K64">
-            <v>1.17</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>Galvanized sheet steel</v>
-          </cell>
-          <cell r="H65" t="str">
-            <v>Galvanized steel sheet</v>
-          </cell>
-          <cell r="I65">
-            <v>7850</v>
-          </cell>
-          <cell r="J65" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K65">
-            <v>3.51</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v xml:space="preserve">Glass wool mat </v>
-          </cell>
-          <cell r="B66"/>
-          <cell r="H66" t="str">
-            <v>glass wool</v>
-          </cell>
-          <cell r="I66" t="str">
-            <v xml:space="preserve">20-100 </v>
-          </cell>
-          <cell r="J66" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K66">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>Glass wool mat (30 kg/m³)</v>
-          </cell>
-          <cell r="H67" t="str">
-            <v>glass wool</v>
-          </cell>
-          <cell r="I67" t="str">
-            <v xml:space="preserve">20-100 </v>
-          </cell>
-          <cell r="J67" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K67">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v xml:space="preserve">Glued laminated timber frame construction with intermediate rock wool (60 kg/m³) </v>
-          </cell>
-          <cell r="B68">
-            <v>30</v>
-          </cell>
-          <cell r="H68" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I68">
-            <v>470</v>
-          </cell>
-          <cell r="J68" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K68">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v xml:space="preserve">Gradient insulation EPS 40-140 mm </v>
-          </cell>
-          <cell r="B69"/>
-          <cell r="K69"/>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>Granite floor slabs (mottled and brush-finished) in mortar bedding</v>
-          </cell>
-          <cell r="K70"/>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>Gravel</v>
-          </cell>
-          <cell r="H71" t="str">
-            <v>broken gravel</v>
-          </cell>
-          <cell r="I71">
-            <v>2000</v>
-          </cell>
-          <cell r="J71" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K71">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>Gravel Non-woven filter (PE)</v>
-          </cell>
-          <cell r="B72"/>
-          <cell r="K72"/>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>Gypsum fibre board</v>
-          </cell>
-          <cell r="K73"/>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v xml:space="preserve">Gypsum fibre board screed (Fermacell) </v>
-          </cell>
-          <cell r="B74"/>
-          <cell r="K74"/>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>Gypsum plaster</v>
-          </cell>
-          <cell r="B75">
-            <v>30</v>
-          </cell>
-          <cell r="H75" t="str">
-            <v>gypsum-lime plaster</v>
-          </cell>
-          <cell r="I75">
-            <v>925</v>
-          </cell>
-          <cell r="J75" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K75">
-            <v>0.155</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>Gypsum plaster board</v>
-          </cell>
-          <cell r="B76">
-            <v>30</v>
-          </cell>
-          <cell r="H76" t="str">
-            <v>gypsum-lime plaster</v>
-          </cell>
-          <cell r="I76">
-            <v>925</v>
-          </cell>
-          <cell r="J76" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K76">
-            <v>0.155</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v xml:space="preserve">Gypsum plaster board 12cm x 17.5cm </v>
-          </cell>
-          <cell r="B77">
-            <v>30</v>
-          </cell>
-          <cell r="H77" t="str">
-            <v>gypsum-lime plaster</v>
-          </cell>
-          <cell r="I77">
-            <v>925</v>
-          </cell>
-          <cell r="J77" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K77">
-            <v>0.155</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>(White) gypsum plaster, painted</v>
-          </cell>
-          <cell r="H78" t="str">
-            <v>gypsum/white plaster</v>
-          </cell>
-          <cell r="I78">
-            <v>1100</v>
-          </cell>
-          <cell r="J78" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K78">
-            <v>0.14699999999999999</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>Hard fibre board</v>
-          </cell>
-          <cell r="B79"/>
-          <cell r="K79"/>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>Insulating fibre board</v>
-          </cell>
-          <cell r="K80"/>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>insulation (glass wool) (30 kg/m³)</v>
-          </cell>
-          <cell r="B81"/>
-          <cell r="H81" t="str">
-            <v>glass wool</v>
-          </cell>
-          <cell r="I81" t="str">
-            <v xml:space="preserve">20-100 </v>
-          </cell>
-          <cell r="J81" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K81">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>Insulation (recycled glass foam fill)</v>
-          </cell>
-          <cell r="B82">
-            <v>60</v>
-          </cell>
-          <cell r="H82" t="str">
-            <v>foam glass gravel</v>
-          </cell>
-          <cell r="I82" t="str">
-            <v xml:space="preserve">125-150 </v>
-          </cell>
-          <cell r="J82" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K82">
-            <v>0.155</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>Insulation of Polyurethane (PU)</v>
-          </cell>
-          <cell r="B83"/>
-          <cell r="K83"/>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>Large scale timber board (GFP)</v>
-          </cell>
-          <cell r="B84"/>
-          <cell r="K84"/>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>Lean concrete</v>
-          </cell>
-          <cell r="B85"/>
-          <cell r="H85" t="str">
-            <v>lean concrete (without reinforcement)</v>
-          </cell>
-          <cell r="I85">
-            <v>2150</v>
-          </cell>
-          <cell r="J85" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K85">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>Lime plaster</v>
-          </cell>
-          <cell r="H86" t="str">
-            <v>Lime-cement/cement-lime plaster</v>
-          </cell>
-          <cell r="I86">
-            <v>1550</v>
-          </cell>
-          <cell r="J86" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K86">
-            <v>0.247</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>Linoleum</v>
-          </cell>
-          <cell r="B87"/>
-          <cell r="H87" t="str">
-            <v>Linoleum, 2.5mm</v>
-          </cell>
-          <cell r="I87">
-            <v>2.9</v>
-          </cell>
-          <cell r="J87" t="str">
-            <v xml:space="preserve">m2 </v>
-          </cell>
-          <cell r="K87">
-            <v>6.36</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>Log wood panel with 0.26 m rock wool</v>
-          </cell>
-          <cell r="B88">
-            <v>30</v>
-          </cell>
-          <cell r="H88" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I88">
-            <v>470</v>
-          </cell>
-          <cell r="J88" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K88">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89"/>
-          <cell r="B89">
-            <v>30</v>
-          </cell>
-          <cell r="H89" t="str">
-            <v>rockwool</v>
-          </cell>
-          <cell r="I89">
-            <v>60</v>
-          </cell>
-          <cell r="J89" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K89">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v xml:space="preserve">Log wood panel with 6 cm insulation (glass wool) (30 kg/m³) </v>
-          </cell>
-          <cell r="K90"/>
-        </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v>Masonry-BN (standard brick)</v>
-          </cell>
-          <cell r="K91"/>
-        </row>
-        <row r="92">
-          <cell r="A92" t="str">
-            <v>Mastic asphalt</v>
-          </cell>
-          <cell r="B92"/>
-          <cell r="H92" t="str">
-            <v>Mastic asphalt, 27.5 mm</v>
-          </cell>
-          <cell r="I92">
-            <v>63.3</v>
-          </cell>
-          <cell r="J92" t="str">
-            <v xml:space="preserve">m2 </v>
-          </cell>
-          <cell r="K92">
-            <v>14.1</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93" t="str">
-            <v>Medium density fibre board (DWD)</v>
-          </cell>
-          <cell r="B93"/>
-          <cell r="K93"/>
-        </row>
-        <row r="94">
-          <cell r="A94" t="str">
-            <v xml:space="preserve">Metal frame construction </v>
-          </cell>
-          <cell r="B94"/>
-          <cell r="K94"/>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>Metal frame construction with intermediate rock wool insulation</v>
-          </cell>
-          <cell r="B95"/>
-          <cell r="K95"/>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>Metal frame construction with rock wool insulation</v>
-          </cell>
-          <cell r="B96"/>
-          <cell r="K96"/>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>Metal sheets</v>
-          </cell>
-          <cell r="B97"/>
-          <cell r="K97"/>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v xml:space="preserve">Metal stud construction with intermediate rock wool insulation </v>
-          </cell>
-          <cell r="B98"/>
-          <cell r="K98"/>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>Metal, glass insert</v>
-          </cell>
-          <cell r="K99"/>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>Mineral fibre board</v>
-          </cell>
-          <cell r="B100"/>
-          <cell r="K100"/>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>Mineral plaster</v>
-          </cell>
-          <cell r="K101"/>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>Non-woven filter (PE)</v>
-          </cell>
-          <cell r="B102">
-            <v>30</v>
-          </cell>
-          <cell r="H102" t="str">
-            <v>Polyethylene fleece (PE)</v>
-          </cell>
-          <cell r="I102">
-            <v>920</v>
-          </cell>
-          <cell r="J102" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K102">
-            <v>5.53</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>Non-woven polyethylene (PE)</v>
-          </cell>
-          <cell r="B103">
-            <v>30</v>
-          </cell>
-          <cell r="H103" t="str">
-            <v>Polyethylene fleece (PE)</v>
-          </cell>
-          <cell r="I103">
-            <v>920</v>
-          </cell>
-          <cell r="J103" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K103">
-            <v>5.53</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>Oriented Strand Board (OSB)</v>
-          </cell>
-          <cell r="K104"/>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>Particle board, emission-free ("Living board")</v>
-          </cell>
-          <cell r="B105"/>
-          <cell r="K105"/>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>Permeable fibre board (DHF)</v>
-          </cell>
-          <cell r="B106"/>
-          <cell r="K106"/>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>Phenolic foam (PF) (15 kg/m³)</v>
-          </cell>
-          <cell r="B107"/>
-          <cell r="H107" t="str">
-            <v>phenolic resin (PF)</v>
-          </cell>
-          <cell r="I107">
-            <v>40</v>
-          </cell>
-          <cell r="J107" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K107">
-            <v>6.23</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>Polypropylene fleece (PP)</v>
-          </cell>
-          <cell r="B108"/>
-          <cell r="H108" t="str">
-            <v>Polypropylene (PP)</v>
-          </cell>
-          <cell r="I108">
-            <v>910</v>
-          </cell>
-          <cell r="J108" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K108">
-            <v>5.43</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>Polyurethane (PUR / PIR) (30 kg/m³)</v>
-          </cell>
-          <cell r="B109">
-            <v>30</v>
-          </cell>
-          <cell r="H109" t="str">
-            <v>Polyurethane (PUR/PIR)</v>
-          </cell>
-          <cell r="I109">
-            <v>30</v>
-          </cell>
-          <cell r="J109" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K109">
-            <v>7.52</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>Polyurethane foam (PU) (30 kg/m³)</v>
-          </cell>
-          <cell r="B110"/>
-          <cell r="K110"/>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>Poor concrete</v>
-          </cell>
-          <cell r="K111"/>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>Protective drainage layer made of PE</v>
-          </cell>
-          <cell r="B112"/>
-          <cell r="K112"/>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
-            <v>Protective Layer (PE)</v>
-          </cell>
-          <cell r="B113"/>
-          <cell r="K113"/>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>Protective sheet of rubber granulate</v>
-          </cell>
-          <cell r="K114"/>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>Rafters (10/14)</v>
-          </cell>
-          <cell r="B115"/>
-          <cell r="K115"/>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>Rafters with cellulose insulation</v>
-          </cell>
-          <cell r="B116"/>
-          <cell r="K116"/>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>Reinforced concrete (m³)</v>
-          </cell>
-          <cell r="B117"/>
-          <cell r="K117"/>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>Rock wool (100 kg/m³)</v>
-          </cell>
-          <cell r="B118">
-            <v>30</v>
-          </cell>
-          <cell r="H118" t="str">
-            <v>rockwool</v>
-          </cell>
-          <cell r="I118">
-            <v>100</v>
-          </cell>
-          <cell r="J118" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K118">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>Rock wool (60 kg/m³)</v>
-          </cell>
-          <cell r="B119">
-            <v>30</v>
-          </cell>
-          <cell r="H119" t="str">
-            <v>rockwool</v>
-          </cell>
-          <cell r="I119">
-            <v>60</v>
-          </cell>
-          <cell r="J119" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K119">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120" t="str">
-            <v>Rock wool insulation</v>
-          </cell>
-          <cell r="B120">
-            <v>30</v>
-          </cell>
-          <cell r="H120" t="str">
-            <v>rockwool</v>
-          </cell>
-          <cell r="I120" t="str">
-            <v xml:space="preserve">32-160 </v>
-          </cell>
-          <cell r="J120" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K120">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>Rock wool slab (160 kg/m³)</v>
-          </cell>
-          <cell r="B121">
-            <v>30</v>
-          </cell>
-          <cell r="H121" t="str">
-            <v>rockwool</v>
-          </cell>
-          <cell r="I121">
-            <v>160</v>
-          </cell>
-          <cell r="J121" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K121">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
-            <v>Rockwool insulation (60 kg/m³)</v>
-          </cell>
-          <cell r="B122">
-            <v>30</v>
-          </cell>
-          <cell r="H122" t="str">
-            <v>rockwool</v>
-          </cell>
-          <cell r="I122">
-            <v>60</v>
-          </cell>
-          <cell r="J122" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K122">
-            <v>1.1299999999999999</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
-            <v>Sand</v>
-          </cell>
-          <cell r="B123">
-            <v>30</v>
-          </cell>
-          <cell r="H123" t="str">
-            <v>sand</v>
-          </cell>
-          <cell r="I123">
-            <v>2000</v>
-          </cell>
-          <cell r="J123" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K123">
-            <v>1.4E-2</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>Sand filling</v>
-          </cell>
-          <cell r="B124">
-            <v>30</v>
-          </cell>
-          <cell r="H124" t="str">
-            <v>sand</v>
-          </cell>
-          <cell r="I124">
-            <v>2000</v>
-          </cell>
-          <cell r="J124" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K124">
-            <v>1.4E-2</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>Sand lime brick</v>
-          </cell>
-          <cell r="B125">
-            <v>60</v>
-          </cell>
-          <cell r="H125" t="str">
-            <v>sand-lime brick</v>
-          </cell>
-          <cell r="I125">
-            <v>1400</v>
-          </cell>
-          <cell r="J125" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K125">
-            <v>0.13800000000000001</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
-            <v>Sand-lime brick</v>
-          </cell>
-          <cell r="B126">
-            <v>60</v>
-          </cell>
-          <cell r="H126" t="str">
-            <v>sand-lime brick</v>
-          </cell>
-          <cell r="I126">
-            <v>1400</v>
-          </cell>
-          <cell r="J126" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K126">
-            <v>0.13800000000000001</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>Solid Oak (parquet)</v>
-          </cell>
-          <cell r="H127" t="str">
-            <v>Solid beech / oak, kiln dried, planed</v>
-          </cell>
-          <cell r="I127">
-            <v>675</v>
-          </cell>
-          <cell r="J127" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K127">
-            <v>0.126</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128" t="str">
-            <v>Solid Spruce / Fir / Larch</v>
-          </cell>
-          <cell r="B128">
-            <v>30</v>
-          </cell>
-          <cell r="H128" t="str">
-            <v>Solid wood spruce / fir / larch, air dried, planed</v>
-          </cell>
-          <cell r="I128">
-            <v>485</v>
-          </cell>
-          <cell r="J128" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K128">
-            <v>0.125</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129" t="str">
-            <v>Solid Spruce / Fir / Larch (parquet)</v>
-          </cell>
-          <cell r="B129">
-            <v>30</v>
-          </cell>
-          <cell r="H129" t="str">
-            <v>Solid wood spruce / fir / larch, air dried, planed</v>
-          </cell>
-          <cell r="I129">
-            <v>485</v>
-          </cell>
-          <cell r="J129" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K129">
-            <v>0.125</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>Solid wood (m³)</v>
-          </cell>
-          <cell r="K130"/>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>Solid wood (spruce), raw</v>
-          </cell>
-          <cell r="B131"/>
-          <cell r="K131"/>
-        </row>
-        <row r="132">
-          <cell r="A132" t="str">
-            <v>Steel (filled with quarry sand) - volume (m³)</v>
-          </cell>
-          <cell r="K132"/>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>Steel (filled with sand) (m³)</v>
-          </cell>
-          <cell r="B133"/>
-          <cell r="K133"/>
-        </row>
-        <row r="134">
-          <cell r="A134" t="str">
-            <v>Stucco</v>
-          </cell>
-          <cell r="K134"/>
-        </row>
-        <row r="135">
-          <cell r="A135" t="str">
-            <v>Substrate for vegetation</v>
-          </cell>
-          <cell r="K135"/>
-        </row>
-        <row r="136">
-          <cell r="A136" t="str">
-            <v>Sun care Coating</v>
-          </cell>
-          <cell r="K136"/>
-        </row>
-        <row r="137">
-          <cell r="A137" t="str">
-            <v>Suspension ceiling lining with intermediate rock wool insulation (0.06 m)</v>
-          </cell>
-          <cell r="B137"/>
-          <cell r="K137"/>
-        </row>
-        <row r="138">
-          <cell r="A138" t="str">
-            <v>Synthetic rubber mat with nubs</v>
-          </cell>
-          <cell r="B138"/>
-          <cell r="K138"/>
-        </row>
-        <row r="139">
-          <cell r="A139" t="str">
-            <v>Tile / brick &amp; timber construction, battens</v>
-          </cell>
-          <cell r="B139"/>
-          <cell r="K139"/>
-        </row>
-        <row r="140">
-          <cell r="A140" t="str">
-            <v>Timber battens</v>
-          </cell>
-          <cell r="B140">
-            <v>30</v>
-          </cell>
-          <cell r="K140"/>
-        </row>
-        <row r="141">
-          <cell r="A141" t="str">
-            <v>Timber battens (30/60)</v>
-          </cell>
-          <cell r="B141">
-            <v>30</v>
-          </cell>
-          <cell r="H141" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I141">
-            <v>470</v>
-          </cell>
-          <cell r="J141" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K141">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142" t="str">
-            <v>Timber battens (40/80) with intermediate rock wool insulation (60 kg/m³)</v>
-          </cell>
-          <cell r="B142">
-            <v>30</v>
-          </cell>
-          <cell r="H142" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I142">
-            <v>470</v>
-          </cell>
-          <cell r="J142" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K142">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143" t="str">
-            <v xml:space="preserve">Timber battens (50/80) with intermediate rock wool insulation </v>
-          </cell>
-          <cell r="B143">
-            <v>30</v>
-          </cell>
-          <cell r="H143" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I143">
-            <v>470</v>
-          </cell>
-          <cell r="J143" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K143">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144" t="str">
-            <v>Timber battens (60/130)</v>
-          </cell>
-          <cell r="B144">
-            <v>30</v>
-          </cell>
-          <cell r="H144" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I144">
-            <v>470</v>
-          </cell>
-          <cell r="J144" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K144">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145" t="str">
-            <v>Timber battens (60/30)</v>
-          </cell>
-          <cell r="B145">
-            <v>30</v>
-          </cell>
-          <cell r="H145" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I145">
-            <v>470</v>
-          </cell>
-          <cell r="J145" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K145">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146" t="str">
-            <v>Timber battens and air cavity</v>
-          </cell>
-          <cell r="B146">
-            <v>30</v>
-          </cell>
-          <cell r="H146" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I146">
-            <v>470</v>
-          </cell>
-          <cell r="J146" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K146">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147" t="str">
-            <v>Timber battens and counter battens</v>
-          </cell>
-          <cell r="B147">
-            <v>30</v>
-          </cell>
-          <cell r="H147" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I147">
-            <v>470</v>
-          </cell>
-          <cell r="J147" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K147">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148" t="str">
-            <v xml:space="preserve">Timber battens and counter battens with air cavity </v>
-          </cell>
-          <cell r="B148">
-            <v>30</v>
-          </cell>
-          <cell r="H148" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I148">
-            <v>470</v>
-          </cell>
-          <cell r="J148" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K148">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149" t="str">
-            <v xml:space="preserve">Timber battens and counter battens with intermediate air space </v>
-          </cell>
-          <cell r="B149">
-            <v>30</v>
-          </cell>
-          <cell r="H149" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I149">
-            <v>470</v>
-          </cell>
-          <cell r="J149" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K149">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150" t="str">
-            <v>Timber battens with intermediate</v>
-          </cell>
-          <cell r="B150">
-            <v>30</v>
-          </cell>
-          <cell r="H150" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I150">
-            <v>470</v>
-          </cell>
-          <cell r="J150" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K150">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151" t="str">
-            <v xml:space="preserve">Timber battens with intermediate air space  </v>
-          </cell>
-          <cell r="B151">
-            <v>30</v>
-          </cell>
-          <cell r="H151" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I151">
-            <v>470</v>
-          </cell>
-          <cell r="J151" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K151">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152" t="str">
-            <v xml:space="preserve">Timber battens with intermediate glass wool </v>
-          </cell>
-          <cell r="B152">
-            <v>30</v>
-          </cell>
-          <cell r="H152" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I152">
-            <v>470</v>
-          </cell>
-          <cell r="J152" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K152">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153" t="str">
-            <v>Timber battens with intermediate glass wool mat (30 kg/m³)</v>
-          </cell>
-          <cell r="B153">
-            <v>30</v>
-          </cell>
-          <cell r="H153" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I153">
-            <v>470</v>
-          </cell>
-          <cell r="J153" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K153">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154" t="str">
-            <v>Timber battens with intermediate insulation</v>
-          </cell>
-          <cell r="B154">
-            <v>30</v>
-          </cell>
-          <cell r="H154" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I154">
-            <v>470</v>
-          </cell>
-          <cell r="J154" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K154">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155" t="str">
-            <v>Timber battens with intermediate insulation (0.3 m) and installation gap (0.05 m)</v>
-          </cell>
-          <cell r="B155">
-            <v>30</v>
-          </cell>
-          <cell r="H155" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I155">
-            <v>470</v>
-          </cell>
-          <cell r="J155" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K155">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156" t="str">
-            <v>Timber battens with intermediate rock wool insulation</v>
-          </cell>
-          <cell r="B156">
-            <v>30</v>
-          </cell>
-          <cell r="H156" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I156">
-            <v>470</v>
-          </cell>
-          <cell r="J156" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K156">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157" t="str">
-            <v xml:space="preserve">Timber battens with rock wool (60 kg/m³ </v>
-          </cell>
-          <cell r="B157">
-            <v>30</v>
-          </cell>
-          <cell r="H157" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I157">
-            <v>470</v>
-          </cell>
-          <cell r="J157" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K157">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158" t="str">
-            <v>Timber battens with sand fill</v>
-          </cell>
-          <cell r="B158">
-            <v>30</v>
-          </cell>
-          <cell r="H158" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I158">
-            <v>470</v>
-          </cell>
-          <cell r="J158" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K158">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159" t="str">
-            <v>Timber cladding</v>
-          </cell>
-          <cell r="B159">
-            <v>30</v>
-          </cell>
-          <cell r="H159" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I159">
-            <v>470</v>
-          </cell>
-          <cell r="J159" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K159">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160" t="str">
-            <v>Timber frame construction</v>
-          </cell>
-          <cell r="B160">
-            <v>30</v>
-          </cell>
-          <cell r="H160" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I160">
-            <v>470</v>
-          </cell>
-          <cell r="J160" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K160">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161" t="str">
-            <v xml:space="preserve">Timber frame construction 60/320 with intermediate cellulose insulation, timber ratio 12% </v>
-          </cell>
-          <cell r="B161">
-            <v>30</v>
-          </cell>
-          <cell r="H161" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I161">
-            <v>470</v>
-          </cell>
-          <cell r="J161" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K161">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162" t="str">
-            <v>Timber frame construction with cellulose insulation (50 kg/m3)</v>
-          </cell>
-          <cell r="B162">
-            <v>30</v>
-          </cell>
-          <cell r="H162" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I162">
-            <v>470</v>
-          </cell>
-          <cell r="J162" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K162">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163" t="str">
-            <v>Timber frame construction with intermediate cellulose fibre insulation</v>
-          </cell>
-          <cell r="B163">
-            <v>30</v>
-          </cell>
-          <cell r="H163" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I163">
-            <v>470</v>
-          </cell>
-          <cell r="J163" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K163">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164" t="str">
-            <v>timber frame construction with intermediate glass wool insulation</v>
-          </cell>
-          <cell r="B164">
-            <v>30</v>
-          </cell>
-          <cell r="H164" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I164">
-            <v>470</v>
-          </cell>
-          <cell r="J164" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K164">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165" t="str">
-            <v>Timber frame construction with intermediate insulation (glass wool) (30 kg/m³)</v>
-          </cell>
-          <cell r="B165">
-            <v>30</v>
-          </cell>
-          <cell r="H165" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I165">
-            <v>470</v>
-          </cell>
-          <cell r="J165" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K165">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166" t="str">
-            <v xml:space="preserve">Timber frame construction with intermediate rock wool insulation (60 kg/m³) </v>
-          </cell>
-          <cell r="B166">
-            <v>30</v>
-          </cell>
-          <cell r="H166" t="str">
-            <v>Glued laminated timber, UF bonded, dry area</v>
-          </cell>
-          <cell r="I166">
-            <v>470</v>
-          </cell>
-          <cell r="J166" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K166">
-            <v>0.44600000000000001</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167" t="str">
-            <v>Vapour barrier of polyethylene (PE)</v>
-          </cell>
-          <cell r="B167">
-            <v>30</v>
-          </cell>
-          <cell r="H167" t="str">
-            <v>Polyethylene (PE) vapor barrier</v>
-          </cell>
-          <cell r="I167">
-            <v>920</v>
-          </cell>
-          <cell r="J167" t="str">
-            <v xml:space="preserve">kg </v>
-          </cell>
-          <cell r="K167">
-            <v>5.33</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168" t="str">
-            <v>Vapour barrier of polypropylene nonwoven</v>
-          </cell>
-          <cell r="B168">
-            <v>30</v>
-          </cell>
-          <cell r="K168"/>
-        </row>
-        <row r="169">
-          <cell r="A169" t="str">
-            <v>Wind paper</v>
-          </cell>
-          <cell r="B169">
-            <v>30</v>
-          </cell>
-          <cell r="K169"/>
-        </row>
-        <row r="170">
-          <cell r="A170" t="str">
-            <v>Wood wool board, cement bonded</v>
-          </cell>
-          <cell r="B170">
-            <v>30</v>
-          </cell>
-          <cell r="K170"/>
-        </row>
-        <row r="171">
-          <cell r="A171" t="str">
-            <v>Wood, aluminum clad</v>
-          </cell>
-          <cell r="B171">
-            <v>30</v>
-          </cell>
-          <cell r="H171" t="str">
-            <v>Exterior door, wood, aluminium-clad</v>
-          </cell>
-          <cell r="I171" t="str">
-            <v xml:space="preserve">- </v>
-          </cell>
-          <cell r="J171" t="str">
-            <v xml:space="preserve">m2 </v>
-          </cell>
-          <cell r="K171">
-            <v>77.599999999999994</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172" t="str">
-            <v>Metal-glass insert</v>
-          </cell>
-          <cell r="B172">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173" t="str">
-            <v xml:space="preserve">Metal with glass insert </v>
-          </cell>
-          <cell r="B173">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174" t="str">
-            <v xml:space="preserve">Wood, glass insert </v>
-          </cell>
-          <cell r="B174">
-            <v>30</v>
-          </cell>
-          <cell r="H174" t="str">
-            <v>Exterior door, wood, glass insert</v>
-          </cell>
-          <cell r="I174" t="str">
-            <v xml:space="preserve">- </v>
-          </cell>
-          <cell r="J174" t="str">
-            <v xml:space="preserve">m2 </v>
-          </cell>
-          <cell r="K174">
-            <v>97.7</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175" t="str">
-            <v>Wood/ aluminium, triple glazing</v>
-          </cell>
-          <cell r="B175">
-            <v>30</v>
-          </cell>
-          <cell r="H175" t="str">
-            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
-          </cell>
-          <cell r="I175">
-            <v>83.4</v>
-          </cell>
-          <cell r="J175" t="str">
-            <v>kg</v>
-          </cell>
-          <cell r="K175">
-            <v>0.13719999999999999</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176"/>
-          <cell r="B176">
-            <v>30</v>
-          </cell>
-          <cell r="H176" t="str">
-            <v>Triple glazing, Ug value 0.6 W/m 2K, thickness 40 mm</v>
-          </cell>
-          <cell r="I176" t="str">
-            <v xml:space="preserve">- </v>
-          </cell>
-          <cell r="J176" t="str">
-            <v xml:space="preserve">m2 </v>
-          </cell>
-          <cell r="K176">
-            <v>66.8</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177" t="str">
-            <v>Wood/ aluminium, double glazing</v>
-          </cell>
-          <cell r="B177">
-            <v>30</v>
-          </cell>
-          <cell r="H177" t="str">
-            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
-          </cell>
-          <cell r="I177">
-            <v>83.4</v>
-          </cell>
-          <cell r="J177" t="str">
-            <v>kg</v>
-          </cell>
-          <cell r="K177">
-            <v>0.13719999999999999</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178"/>
-          <cell r="B178">
-            <v>30</v>
-          </cell>
-          <cell r="H178" t="str">
-            <v>Double insulating glazing, Ug value 1.1 W/m 2K, thickness 24 mm</v>
-          </cell>
-          <cell r="I178" t="str">
-            <v xml:space="preserve">- </v>
-          </cell>
-          <cell r="J178" t="str">
-            <v xml:space="preserve">m2 </v>
-          </cell>
-          <cell r="K178">
-            <v>43.7</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179" t="str">
-            <v>Wood/ aluminium, transparent insulation</v>
-          </cell>
-          <cell r="B179">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180" t="str">
-            <v>Aluminium overhead light</v>
-          </cell>
-          <cell r="B180">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181" t="str">
-            <v>Wood, triple glazing</v>
-          </cell>
-          <cell r="B181">
-            <v>30</v>
-          </cell>
-          <cell r="H181" t="str">
-            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
-          </cell>
-          <cell r="I181">
-            <v>83.4</v>
-          </cell>
-          <cell r="J181" t="str">
-            <v>kg</v>
-          </cell>
-          <cell r="K181">
-            <v>0.13719999999999999</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182"/>
-          <cell r="B182">
-            <v>30</v>
-          </cell>
-          <cell r="H182" t="str">
-            <v>Triple glazing, Ug value 0.6 W/m 2K, thickness 40 mm</v>
-          </cell>
-          <cell r="I182" t="str">
-            <v xml:space="preserve">- </v>
-          </cell>
-          <cell r="J182" t="str">
-            <v xml:space="preserve">m2 </v>
-          </cell>
-          <cell r="K182">
-            <v>66.8</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183" t="str">
-            <v xml:space="preserve">Wood, double glazing </v>
-          </cell>
-          <cell r="H183" t="str">
-            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
-          </cell>
-          <cell r="I183">
-            <v>83.4</v>
-          </cell>
-          <cell r="J183" t="str">
-            <v>kg</v>
-          </cell>
-          <cell r="K183">
-            <v>0.13719999999999999</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184"/>
-          <cell r="H184" t="str">
-            <v>Double insulating glazing, Ug value 1.1 W/m 2K, thickness 24 mm</v>
-          </cell>
-          <cell r="I184" t="str">
-            <v xml:space="preserve">- </v>
-          </cell>
-          <cell r="J184" t="str">
-            <v xml:space="preserve">m2 </v>
-          </cell>
-          <cell r="K184">
-            <v>43.7</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185" t="str">
-            <v xml:space="preserve">Plastic, double glazing </v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186" t="str">
-            <v>Electricity</v>
-          </cell>
-          <cell r="H186" t="str">
-            <v>'market for electricity, low voltage'</v>
-          </cell>
-          <cell r="J186" t="str">
-            <v>kWh</v>
-          </cell>
-          <cell r="K186">
-            <v>4.4990000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187" t="str">
-            <v>Combined with central heat generator: Electric heat pump water brine (135 kW)</v>
-          </cell>
-          <cell r="H187" t="str">
-            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
-          </cell>
-          <cell r="J187" t="str">
-            <v>megajoule</v>
-          </cell>
-          <cell r="K187">
-            <v>8.2799999999999992E-3</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188" t="str">
-            <v>Combined with central heat generator: District heating</v>
-          </cell>
-          <cell r="H188" t="str">
-            <v>heat, from municipal waste incineration to generic market for heat district or industrial, other than natural gas</v>
-          </cell>
-          <cell r="J188" t="str">
-            <v>megajoule</v>
-          </cell>
-          <cell r="K188">
-            <v>1.85E-4</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189" t="str">
-            <v xml:space="preserve">Central hot water only, electric heat pump </v>
-          </cell>
-          <cell r="H189" t="str">
-            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
-          </cell>
-          <cell r="J189" t="str">
-            <v>megajoule</v>
-          </cell>
-          <cell r="K189">
-            <v>8.2799999999999992E-3</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190" t="str">
-            <v>Combined with central heat generator: Electric heat pump water brine (16.7 kW)</v>
-          </cell>
-          <cell r="H190" t="str">
-            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
-          </cell>
-          <cell r="J190" t="str">
-            <v>megajoule</v>
-          </cell>
-          <cell r="K190">
-            <v>8.2799999999999992E-3</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191" t="str">
-            <v>Combined with central heat generator: Electric heat pump water brine (60 kW)</v>
-          </cell>
-          <cell r="H191" t="str">
-            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
-          </cell>
-          <cell r="J191" t="str">
-            <v>megajoule</v>
-          </cell>
-          <cell r="K191">
-            <v>8.2799999999999992E-3</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192" t="str">
-            <v>Combined with central heat generator: Wood pellet heating (67.2 kW)</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193" t="str">
-            <v>Central, hot water only: Modulating condensing boiler (kW 70)</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194" t="str">
-            <v>Combined with central heat generator: Electric heat pump water brine (24.9 kW)</v>
-          </cell>
-          <cell r="H194" t="str">
-            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
-          </cell>
-          <cell r="J194" t="str">
-            <v>megajoule</v>
-          </cell>
-          <cell r="K194">
-            <v>8.2799999999999992E-3</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195" t="str">
-            <v>Combined with central heat generator: Electric heat pump, air water (4.2 kW)</v>
-          </cell>
-          <cell r="H195" t="str">
-            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
-          </cell>
-          <cell r="J195" t="str">
-            <v>megajoule</v>
-          </cell>
-          <cell r="K195">
-            <v>8.2799999999999992E-3</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196" t="str">
-            <v>Near/ district heating from cogeneration</v>
-          </cell>
-          <cell r="H196" t="str">
-            <v>heat, from municipal waste incineration to generic market for heat district or industrial, other than natural gas</v>
-          </cell>
-          <cell r="J196" t="str">
-            <v>megajoule</v>
-          </cell>
-          <cell r="K196">
-            <v>1.85E-4</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197" t="str">
-            <v>Combined with central heat generator: Electric heat pump water brine (40.8 kW)</v>
-          </cell>
-          <cell r="H197" t="str">
-            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
-          </cell>
-          <cell r="J197" t="str">
-            <v>megajoule</v>
-          </cell>
-          <cell r="K197">
-            <v>8.2799999999999992E-3</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198" t="str">
-            <v>Combined with central heat generator: Electric heat pump water brine (28.1 kW)</v>
-          </cell>
-          <cell r="H198" t="str">
-            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
-          </cell>
-          <cell r="J198" t="str">
-            <v>megajoule</v>
-          </cell>
-          <cell r="K198">
-            <v>8.2799999999999992E-3</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199" t="str">
-            <v>wood chips</v>
-          </cell>
-          <cell r="H199" t="str">
-            <v>heat production, wood chips from industry, at furnace 300kW, state-of-the-art 2014' (megajoule, CH, None)</v>
-          </cell>
-          <cell r="K199">
-            <v>7.1700000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200" t="str">
-            <v>lorry</v>
-          </cell>
-          <cell r="H200" t="str">
-            <v>'market for transport, freight, lorry 28 metric ton, fatty acid methyl ester 100%' (ton kilometer, CH, None)</v>
-          </cell>
-          <cell r="K200">
-            <v>0.11509999999999999</v>
+          <cell r="B24">
+            <v>73.099999999999994</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7571,37 +4813,3597 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Building_info_Viola"/>
-      <sheetName val="Construction_Heating"/>
-      <sheetName val="components_thickness"/>
-      <sheetName val="MI_heating_LCAdata"/>
-      <sheetName val="U-Values_components"/>
-      <sheetName val="U-Values_final"/>
+      <sheetName val="Component wise inventories"/>
+      <sheetName val="MI wise inventories"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v xml:space="preserve">12 cm X 16 cm timber frame construction </v>
+          </cell>
+          <cell r="B2">
+            <v>60</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>Glued laminated timber, MF bonded, wet area</v>
+          </cell>
+          <cell r="I2">
+            <v>470</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K2">
+            <v>0.48499999999999999</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>3-layer solid wood panel</v>
+          </cell>
+          <cell r="B3">
+            <v>60</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>3-layer solid wood panel, PVAc bonded</v>
+          </cell>
+          <cell r="I3">
+            <v>470</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K3">
+            <v>0.52300000000000002</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>3-layer solid wood panel PVAc-bound</v>
+          </cell>
+          <cell r="B4">
+            <v>60</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>3-layer solid wood panel, PVAc bonded</v>
+          </cell>
+          <cell r="I4">
+            <v>470</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K4">
+            <v>0.52300000000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>5-layer insulated (glass wool) wood panel</v>
+          </cell>
+          <cell r="B5">
+            <v>60</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>3-layer solid wood panel, PVAc bonded</v>
+          </cell>
+          <cell r="I5">
+            <v>470</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K5">
+            <v>0.52300000000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v xml:space="preserve">8cm x 12cm timber frame construction with intermediate rock wool insulation </v>
+          </cell>
+          <cell r="B6">
+            <v>60</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>Glued laminated timber, MF bonded, wet area</v>
+          </cell>
+          <cell r="I6">
+            <v>470</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K6">
+            <v>0.48499999999999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7"/>
+          <cell r="B7">
+            <v>60</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I7">
+            <v>60</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K7">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v xml:space="preserve">Adhesive mortar </v>
+          </cell>
+          <cell r="B8">
+            <v>60</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>Organic construction adhesive/embedding mortar</v>
+          </cell>
+          <cell r="I8">
+            <v>1670</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K8">
+            <v>0.75800000000000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Air cavity</v>
+          </cell>
+          <cell r="B9"/>
+          <cell r="I9"/>
+          <cell r="J9"/>
+          <cell r="K9"/>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Anhydrite floor</v>
+          </cell>
+          <cell r="B10">
+            <v>60</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>Underlay anhydrite, 60 mm</v>
+          </cell>
+          <cell r="I10">
+            <v>2000</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K10">
+            <v>8.6999999999999994E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Base plaster</v>
+          </cell>
+          <cell r="B11">
+            <v>60</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>clay plaster</v>
+          </cell>
+          <cell r="I11">
+            <v>1800</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K11">
+            <v>2.3E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Bitumen sealing</v>
+          </cell>
+          <cell r="B12">
+            <v>60</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>Bitumen emulsion, 1 coat</v>
+          </cell>
+          <cell r="I12">
+            <v>0.25</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K12">
+            <v>0.70599999999999996</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Bitumen waterproofing membrane GV2</v>
+          </cell>
+          <cell r="B13">
+            <v>30</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>hot bitumen</v>
+          </cell>
+          <cell r="I13">
+            <v>1000</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K13">
+            <v>3.06</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Bituminous geomembrane</v>
+          </cell>
+          <cell r="B14">
+            <v>30</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>hot bitumen</v>
+          </cell>
+          <cell r="I14">
+            <v>1000</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K14">
+            <v>3.06</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Bituminous vapour barrier</v>
+          </cell>
+          <cell r="B15">
+            <v>30</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>hot bitumen</v>
+          </cell>
+          <cell r="I15">
+            <v>1000</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K15">
+            <v>3.06</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Box beam element with intermediate cellu- lose insulation</v>
+          </cell>
+          <cell r="B16"/>
+          <cell r="K16"/>
+        </row>
         <row r="17">
-          <cell r="C17">
-            <v>2</v>
+          <cell r="A17" t="str">
+            <v>Brickwork</v>
+          </cell>
+          <cell r="B17">
+            <v>60</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>brick</v>
+          </cell>
+          <cell r="I17">
+            <v>900</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K17">
+            <v>0.25800000000000001</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Brickwork (concrete brick)</v>
+          </cell>
+          <cell r="B18">
+            <v>60</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>concrete brick</v>
+          </cell>
+          <cell r="I18">
+            <v>2300</v>
+          </cell>
+          <cell r="J18" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K18">
+            <v>0.217</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v xml:space="preserve">Cellulose fibres injected  </v>
+          </cell>
+          <cell r="B19">
+            <v>60</v>
+          </cell>
+          <cell r="H19" t="str">
+            <v>cellulose fibers</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v xml:space="preserve">35-60 </v>
+          </cell>
+          <cell r="J19" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K19">
+            <v>0.25700000000000001</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v xml:space="preserve">cellulose insulation, timber ratio 6% </v>
+          </cell>
+          <cell r="B20"/>
+          <cell r="K20"/>
+        </row>
+        <row r="21">
+          <cell r="A21"/>
+          <cell r="B21"/>
+          <cell r="K21"/>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Cement cast plaster floor</v>
+          </cell>
+          <cell r="B22">
+            <v>30</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>Cement subfloor, 85 mm</v>
+          </cell>
+          <cell r="I22">
+            <v>1850</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K22">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Cement mortar</v>
+          </cell>
+          <cell r="B23">
+            <v>30</v>
+          </cell>
+          <cell r="H23" t="str">
+            <v>Cement subfloor, 85 mm</v>
+          </cell>
+          <cell r="I23">
+            <v>1850</v>
+          </cell>
+          <cell r="J23" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K23">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Cement slates</v>
+          </cell>
+          <cell r="B24">
+            <v>30</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>cement plaster</v>
+          </cell>
+          <cell r="I24">
+            <v>1550</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K24">
+            <v>0.26900000000000002</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Ceramics</v>
+          </cell>
+          <cell r="B25">
+            <v>30</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>ceramic/stoneware plate</v>
+          </cell>
+          <cell r="I25">
+            <v>2600</v>
+          </cell>
+          <cell r="J25" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K25">
+            <v>0.77700000000000002</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Cladding of solid Spruce / Fir / Larch</v>
+          </cell>
+          <cell r="B26">
+            <v>30</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>Solid wood spruce / fir / larch, air dried, planed</v>
+          </cell>
+          <cell r="I26">
+            <v>485</v>
+          </cell>
+          <cell r="J26" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K26">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v xml:space="preserve">Clinker quarter brick </v>
+          </cell>
+          <cell r="B27">
+            <v>60</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>clay bricks</v>
+          </cell>
+          <cell r="I27">
+            <v>1700</v>
+          </cell>
+          <cell r="J27" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K27">
+            <v>0.375</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v xml:space="preserve">Coating + polystyrene (XPS) (30 kg/m³) </v>
+          </cell>
+          <cell r="B28">
+            <v>60</v>
+          </cell>
+          <cell r="H28" t="str">
+            <v>Polystyrene extruded (XPS)</v>
+          </cell>
+          <cell r="I28">
+            <v>30</v>
+          </cell>
+          <cell r="J28" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K28">
+            <v>14.5</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Concrete 8 / 10 (lean concrete)</v>
+          </cell>
+          <cell r="B29">
+            <v>60</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>lean concrete (without reinforcement)</v>
+          </cell>
+          <cell r="I29">
+            <v>2150</v>
+          </cell>
+          <cell r="J29" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K29">
+            <v>5.8999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Concrete bond</v>
+          </cell>
+          <cell r="B30">
+            <v>60</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v>concrete brick</v>
+          </cell>
+          <cell r="I30">
+            <v>2300</v>
+          </cell>
+          <cell r="J30" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K30">
+            <v>0.217</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Concrete C 8 / 10 (lean concrete)</v>
+          </cell>
+          <cell r="B31">
+            <v>60</v>
+          </cell>
+          <cell r="H31" t="str">
+            <v>lean concrete (without reinforcement)</v>
+          </cell>
+          <cell r="I31">
+            <v>2150</v>
+          </cell>
+          <cell r="J31" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K31">
+            <v>5.8999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Concrete floor slab (Fe 80 kg/m³)</v>
+          </cell>
+          <cell r="B32">
+            <v>60</v>
+          </cell>
+          <cell r="H32" t="str">
+            <v>civil engineering concrete (without reinforcement)</v>
+          </cell>
+          <cell r="I32">
+            <v>2350</v>
+          </cell>
+          <cell r="J32" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K32">
+            <v>1.4E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33"/>
+          <cell r="B33">
+            <v>60</v>
+          </cell>
+          <cell r="H33" t="str">
+            <v>reinforcement steel</v>
+          </cell>
+          <cell r="I33">
+            <v>80</v>
+          </cell>
+          <cell r="J33" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K33">
+            <v>0.68200000000000005</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Concrete slab (FE 80 kg/m³)</v>
+          </cell>
+          <cell r="B34">
+            <v>60</v>
+          </cell>
+          <cell r="H34" t="str">
+            <v>civil engineering concrete (without reinforcement)</v>
+          </cell>
+          <cell r="I34">
+            <v>2350</v>
+          </cell>
+          <cell r="J34" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K34">
+            <v>1.4E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35"/>
+          <cell r="B35">
+            <v>60</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>reinforcement steel</v>
+          </cell>
+          <cell r="I35">
+            <v>80</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K35">
+            <v>0.68200000000000005</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Concrete slabs</v>
+          </cell>
+          <cell r="B36">
+            <v>60</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>civil engineering concrete (without reinforcement)</v>
+          </cell>
+          <cell r="I36">
+            <v>2350</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K36">
+            <v>1.4E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37"/>
+          <cell r="B37">
+            <v>60</v>
+          </cell>
+          <cell r="H37" t="str">
+            <v>reinforcement steel</v>
+          </cell>
+          <cell r="I37">
+            <v>80</v>
+          </cell>
+          <cell r="J37" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K37">
+            <v>0.68200000000000005</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Concrete wall (FE 60 kg/m³)</v>
+          </cell>
+          <cell r="B38">
+            <v>60</v>
+          </cell>
+          <cell r="H38" t="str">
+            <v>civil engineering concrete (without reinforcement)</v>
+          </cell>
+          <cell r="I38">
+            <v>2350</v>
+          </cell>
+          <cell r="J38" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K38">
+            <v>1.4E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>60</v>
+          </cell>
+          <cell r="H39" t="str">
+            <v>reinforcement steel</v>
+          </cell>
+          <cell r="I39">
+            <v>80</v>
+          </cell>
+          <cell r="J39" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K39">
+            <v>0.68200000000000005</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Concrete wall (FE 80 kg/m³)</v>
+          </cell>
+          <cell r="B40">
+            <v>60</v>
+          </cell>
+          <cell r="H40" t="str">
+            <v>civil engineering concrete (without reinforcement)</v>
+          </cell>
+          <cell r="I40">
+            <v>2350</v>
+          </cell>
+          <cell r="J40" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K40">
+            <v>1.4E-2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>60</v>
+          </cell>
+          <cell r="H41" t="str">
+            <v>reinforcement steel</v>
+          </cell>
+          <cell r="I41">
+            <v>80</v>
+          </cell>
+          <cell r="J41" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K41">
+            <v>0.68200000000000005</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Drainage slab (poor concrete)</v>
+          </cell>
+          <cell r="B42">
+            <v>30</v>
+          </cell>
+          <cell r="H42" t="str">
+            <v>lean concrete (without reinforcement)</v>
+          </cell>
+          <cell r="I42">
+            <v>2150</v>
+          </cell>
+          <cell r="J42" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K42">
+            <v>5.8999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Edge-glued timber floor</v>
+          </cell>
+          <cell r="B43">
+            <v>60</v>
+          </cell>
+          <cell r="H43" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I43">
+            <v>470</v>
+          </cell>
+          <cell r="J43" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K43">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Expanded polystyrene (EPS) (15 kg/m³)</v>
+          </cell>
+          <cell r="B44">
+            <v>30</v>
+          </cell>
+          <cell r="H44" t="str">
+            <v>Expanded polystyrene (EPS)</v>
+          </cell>
+          <cell r="I44">
+            <v>15</v>
+          </cell>
+          <cell r="J44" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K44">
+            <v>7.64</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Expanded polystyrene (EPS) (30 kg/m³)</v>
+          </cell>
+          <cell r="B45">
+            <v>30</v>
+          </cell>
+          <cell r="H45" t="str">
+            <v>Expanded polystyrene (EPS)</v>
+          </cell>
+          <cell r="I45">
+            <v>30</v>
+          </cell>
+          <cell r="J45" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K45">
+            <v>7.64</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Expanded polystyrene (EPS) (35 kg/m³)</v>
+          </cell>
+          <cell r="B46">
+            <v>30</v>
+          </cell>
+          <cell r="H46" t="str">
+            <v>Expanded polystyrene (EPS)</v>
+          </cell>
+          <cell r="I46">
+            <v>35</v>
+          </cell>
+          <cell r="J46" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K46">
+            <v>7.64</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Extruded polystyrene (XPS) (30 kg/m³)</v>
+          </cell>
+          <cell r="B47">
+            <v>30</v>
+          </cell>
+          <cell r="H47" t="str">
+            <v>Polystyrene extruded (XPS)</v>
+          </cell>
+          <cell r="I47">
+            <v>30</v>
+          </cell>
+          <cell r="J47" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K47">
+            <v>14.5</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Extruded polystyrene (XPS) (35 kg/m³)</v>
+          </cell>
+          <cell r="B48">
+            <v>30</v>
+          </cell>
+          <cell r="H48" t="str">
+            <v>Polystyrene extruded (XPS)</v>
+          </cell>
+          <cell r="I48">
+            <v>35</v>
+          </cell>
+          <cell r="J48" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K48">
+            <v>14.5</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Fibre board</v>
+          </cell>
+          <cell r="B49">
+            <v>30</v>
+          </cell>
+          <cell r="H49" t="str">
+            <v>Medium density fibreboard (MDF), UF bonded</v>
+          </cell>
+          <cell r="I49">
+            <v>685</v>
+          </cell>
+          <cell r="J49" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K49">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50"/>
+          <cell r="B50"/>
+          <cell r="H50" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I50">
+            <v>60</v>
+          </cell>
+          <cell r="J50" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K50">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v xml:space="preserve">Fibre board Polypropylene sheet </v>
+          </cell>
+          <cell r="B51">
+            <v>30</v>
+          </cell>
+          <cell r="H51" t="str">
+            <v>Polypropylene (PP)</v>
+          </cell>
+          <cell r="I51">
+            <v>910</v>
+          </cell>
+          <cell r="J51" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K51">
+            <v>5.43</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Fibre board soft</v>
+          </cell>
+          <cell r="B52">
+            <v>30</v>
+          </cell>
+          <cell r="H52" t="str">
+            <v>Medium density fibreboard (MDF), UF bonded</v>
+          </cell>
+          <cell r="I52">
+            <v>685</v>
+          </cell>
+          <cell r="J52" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K52">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Fibre board, emission-free ("Living board")</v>
+          </cell>
+          <cell r="B53">
+            <v>30</v>
+          </cell>
+          <cell r="H53" t="str">
+            <v>Medium density fibreboard (MDF), UF bonded</v>
+          </cell>
+          <cell r="I53">
+            <v>685</v>
+          </cell>
+          <cell r="J53" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K53">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Fibre cement board</v>
+          </cell>
+          <cell r="B54">
+            <v>30</v>
+          </cell>
+          <cell r="H54" t="str">
+            <v>Medium density fibreboard (MDF), UF bonded</v>
+          </cell>
+          <cell r="I54">
+            <v>685</v>
+          </cell>
+          <cell r="J54" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K54">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Fibre cement facing tile</v>
+          </cell>
+          <cell r="B55">
+            <v>30</v>
+          </cell>
+          <cell r="H55" t="str">
+            <v>Medium density fibreboard (MDF), UF bonded</v>
+          </cell>
+          <cell r="I55">
+            <v>685</v>
+          </cell>
+          <cell r="J55" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K55">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Fibre cement roof slate</v>
+          </cell>
+          <cell r="B56">
+            <v>30</v>
+          </cell>
+          <cell r="H56" t="str">
+            <v>Medium density fibreboard (MDF), UF bonded</v>
+          </cell>
+          <cell r="I56">
+            <v>685</v>
+          </cell>
+          <cell r="J56" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K56">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Flagstone in a bed of crushed stones</v>
+          </cell>
+          <cell r="B57">
+            <v>60</v>
+          </cell>
+          <cell r="H57" t="str">
+            <v>cement stone</v>
+          </cell>
+          <cell r="I57">
+            <v>1700</v>
+          </cell>
+          <cell r="J57" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K57">
+            <v>0.129</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Flagstones</v>
+          </cell>
+          <cell r="B58">
+            <v>60</v>
+          </cell>
+          <cell r="H58" t="str">
+            <v>cement stone</v>
+          </cell>
+          <cell r="I58">
+            <v>1700</v>
+          </cell>
+          <cell r="J58" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K58">
+            <v>0.129</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Floor slab element of plywood</v>
+          </cell>
+          <cell r="B59">
+            <v>60</v>
+          </cell>
+          <cell r="H59" t="str">
+            <v>Plywood/multiplex, UF bonded, dry area</v>
+          </cell>
+          <cell r="I59">
+            <v>500</v>
+          </cell>
+          <cell r="J59" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K59">
+            <v>1.17</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Floor slab element of plywood filled with crushed stones</v>
+          </cell>
+          <cell r="B60">
+            <v>60</v>
+          </cell>
+          <cell r="H60" t="str">
+            <v>Plywood/multiplex, UF bonded, dry area</v>
+          </cell>
+          <cell r="I60">
+            <v>500</v>
+          </cell>
+          <cell r="J60" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K60">
+            <v>1.17</v>
           </cell>
         </row>
         <row r="61">
-          <cell r="C61">
-            <v>350.4</v>
+          <cell r="A61" t="str">
+            <v>Floor slab element of plywood with intermediate rock wool insulation</v>
+          </cell>
+          <cell r="B61">
+            <v>60</v>
+          </cell>
+          <cell r="H61" t="str">
+            <v>Plywood/multiplex, UF bonded, dry area</v>
+          </cell>
+          <cell r="I61">
+            <v>500</v>
+          </cell>
+          <cell r="J61" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K61">
+            <v>1.17</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62"/>
+          <cell r="K62"/>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Flooring of polyurethane (PU)</v>
+          </cell>
+          <cell r="B63">
+            <v>60</v>
+          </cell>
+          <cell r="H63" t="str">
+            <v>Polyurethane (PUR/PIR)</v>
+          </cell>
+          <cell r="I63">
+            <v>30</v>
+          </cell>
+          <cell r="J63" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K63">
+            <v>7.52</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Foam glass</v>
+          </cell>
+          <cell r="B64">
+            <v>60</v>
+          </cell>
+          <cell r="H64" t="str">
+            <v>foam glass</v>
+          </cell>
+          <cell r="I64" t="str">
+            <v xml:space="preserve">100-165 </v>
+          </cell>
+          <cell r="J64" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K64">
+            <v>1.17</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Galvanized sheet steel</v>
+          </cell>
+          <cell r="B65">
+            <v>60</v>
+          </cell>
+          <cell r="H65" t="str">
+            <v>Galvanized steel sheet</v>
+          </cell>
+          <cell r="I65">
+            <v>7850</v>
+          </cell>
+          <cell r="J65" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K65">
+            <v>3.51</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v xml:space="preserve">Glass wool mat </v>
+          </cell>
+          <cell r="B66">
+            <v>60</v>
+          </cell>
+          <cell r="H66" t="str">
+            <v>glass wool</v>
+          </cell>
+          <cell r="I66">
+            <v>50</v>
+          </cell>
+          <cell r="J66" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K66">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>Glass wool mat (30 kg/m³)</v>
+          </cell>
+          <cell r="B67">
+            <v>60</v>
+          </cell>
+          <cell r="H67" t="str">
+            <v>glass wool</v>
+          </cell>
+          <cell r="I67">
+            <v>30</v>
+          </cell>
+          <cell r="J67" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K67">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v xml:space="preserve">Glued laminated timber frame construction with intermediate rock wool (60 kg/m³) </v>
+          </cell>
+          <cell r="B68">
+            <v>30</v>
+          </cell>
+          <cell r="H68" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I68">
+            <v>470</v>
+          </cell>
+          <cell r="J68" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K68">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v xml:space="preserve">Gradient insulation EPS 40-140 mm </v>
+          </cell>
+          <cell r="B69"/>
+          <cell r="K69"/>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Granite floor slabs (mottled and brush-finished) in mortar bedding</v>
+          </cell>
+          <cell r="B70">
+            <v>60</v>
+          </cell>
+          <cell r="H70" t="str">
+            <v>Cement subfloor, 85 mm</v>
+          </cell>
+          <cell r="I70">
+            <v>1850</v>
+          </cell>
+          <cell r="J70" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K70">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Gravel</v>
+          </cell>
+          <cell r="B71">
+            <v>60</v>
+          </cell>
+          <cell r="H71" t="str">
+            <v>broken gravel</v>
+          </cell>
+          <cell r="I71">
+            <v>2000</v>
+          </cell>
+          <cell r="J71" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K71">
+            <v>1.2999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Gravel Non-woven filter (PE)</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Gypsum fibre board</v>
+          </cell>
+          <cell r="B73">
+            <v>60</v>
+          </cell>
+          <cell r="H73" t="str">
+            <v>gypsum fiber board</v>
+          </cell>
+          <cell r="I73">
+            <v>1200</v>
+          </cell>
+          <cell r="J73" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K73">
+            <v>0.53700000000000003</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v xml:space="preserve">Gypsum fibre board screed (Fermacell) </v>
+          </cell>
+          <cell r="B74">
+            <v>60</v>
+          </cell>
+          <cell r="H74" t="str">
+            <v>gypsum fiber board</v>
+          </cell>
+          <cell r="I74">
+            <v>1200</v>
+          </cell>
+          <cell r="J74" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K74">
+            <v>0.53700000000000003</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>Gypsum plaster</v>
+          </cell>
+          <cell r="B75">
+            <v>30</v>
+          </cell>
+          <cell r="H75" t="str">
+            <v>gypsum-lime plaster</v>
+          </cell>
+          <cell r="I75">
+            <v>925</v>
+          </cell>
+          <cell r="J75" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K75">
+            <v>0.155</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>Gypsum plaster board</v>
+          </cell>
+          <cell r="B76">
+            <v>30</v>
+          </cell>
+          <cell r="H76" t="str">
+            <v>gypsum-lime plaster</v>
+          </cell>
+          <cell r="I76">
+            <v>925</v>
+          </cell>
+          <cell r="J76" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K76">
+            <v>0.155</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v xml:space="preserve">Gypsum plaster board 12cm x 17.5cm </v>
+          </cell>
+          <cell r="B77">
+            <v>30</v>
+          </cell>
+          <cell r="H77" t="str">
+            <v>gypsum-lime plaster</v>
+          </cell>
+          <cell r="I77">
+            <v>925</v>
+          </cell>
+          <cell r="J77" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K77">
+            <v>0.155</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>(White) gypsum plaster, painted</v>
+          </cell>
+          <cell r="B78">
+            <v>30</v>
+          </cell>
+          <cell r="H78" t="str">
+            <v>gypsum/white plaster</v>
+          </cell>
+          <cell r="I78">
+            <v>1100</v>
+          </cell>
+          <cell r="J78" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K78">
+            <v>0.14699999999999999</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Hard fibre board</v>
+          </cell>
+          <cell r="B79">
+            <v>30</v>
+          </cell>
+          <cell r="H79" t="str">
+            <v>Medium density fibreboard (MDF), UF bonded</v>
+          </cell>
+          <cell r="I79">
+            <v>685</v>
+          </cell>
+          <cell r="J79" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K79">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Insulating fibre board</v>
+          </cell>
+          <cell r="B80">
+            <v>30</v>
+          </cell>
+          <cell r="H80" t="str">
+            <v>Medium density fibreboard (MDF), UF bonded</v>
+          </cell>
+          <cell r="I80">
+            <v>685</v>
+          </cell>
+          <cell r="J80" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K80">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>insulation (glass wool) (30 kg/m³)</v>
+          </cell>
+          <cell r="B81">
+            <v>60</v>
+          </cell>
+          <cell r="H81" t="str">
+            <v>glass wool</v>
+          </cell>
+          <cell r="I81">
+            <v>30</v>
+          </cell>
+          <cell r="J81" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K81">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Insulation (recycled glass foam fill)</v>
+          </cell>
+          <cell r="B82">
+            <v>60</v>
+          </cell>
+          <cell r="H82" t="str">
+            <v>foam glass gravel</v>
+          </cell>
+          <cell r="I82">
+            <v>150</v>
+          </cell>
+          <cell r="J82" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K82">
+            <v>0.155</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Insulation of Polyurethane (PU)</v>
+          </cell>
+          <cell r="B83">
+            <v>30</v>
+          </cell>
+          <cell r="H83" t="str">
+            <v>Polyurethane (PUR/PIR)</v>
+          </cell>
+          <cell r="I83">
+            <v>30</v>
+          </cell>
+          <cell r="J83" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K83">
+            <v>7.52</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>Large scale timber board (GFP)</v>
+          </cell>
+          <cell r="B84"/>
+          <cell r="K84"/>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>Lean concrete</v>
+          </cell>
+          <cell r="B85">
+            <v>60</v>
+          </cell>
+          <cell r="H85" t="str">
+            <v>lean concrete (without reinforcement)</v>
+          </cell>
+          <cell r="I85">
+            <v>2150</v>
+          </cell>
+          <cell r="J85" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K85">
+            <v>5.8999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>Lime plaster</v>
+          </cell>
+          <cell r="B86">
+            <v>60</v>
+          </cell>
+          <cell r="H86" t="str">
+            <v>Lime-cement/cement-lime plaster</v>
+          </cell>
+          <cell r="I86">
+            <v>1550</v>
+          </cell>
+          <cell r="J86" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K86">
+            <v>0.247</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>Linoleum</v>
+          </cell>
+          <cell r="B87">
+            <v>60</v>
+          </cell>
+          <cell r="H87" t="str">
+            <v>Linoleum, 2.5mm</v>
+          </cell>
+          <cell r="I87">
+            <v>2.9</v>
+          </cell>
+          <cell r="J87" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K87">
+            <v>6.36</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>Log wood panel with 0.26 m rock wool</v>
+          </cell>
+          <cell r="B88">
+            <v>30</v>
+          </cell>
+          <cell r="H88" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I88">
+            <v>470</v>
+          </cell>
+          <cell r="J88" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K88">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89"/>
+          <cell r="B89">
+            <v>30</v>
+          </cell>
+          <cell r="H89" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I89">
+            <v>60</v>
+          </cell>
+          <cell r="J89" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K89">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v xml:space="preserve">Log wood panel with 6 cm insulation (glass wool) (30 kg/m³) </v>
+          </cell>
+          <cell r="B90">
+            <v>30</v>
+          </cell>
+          <cell r="H90" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I90">
+            <v>470</v>
+          </cell>
+          <cell r="J90" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K90">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>30</v>
+          </cell>
+          <cell r="H91" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I91">
+            <v>60</v>
+          </cell>
+          <cell r="J91" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K91">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>Masonry-BN (standard brick)</v>
+          </cell>
+          <cell r="B92">
+            <v>60</v>
+          </cell>
+          <cell r="H92" t="str">
+            <v>brick</v>
+          </cell>
+          <cell r="I92">
+            <v>900</v>
+          </cell>
+          <cell r="J92" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K92">
+            <v>0.25800000000000001</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>Mastic asphalt</v>
+          </cell>
+          <cell r="B93">
+            <v>60</v>
+          </cell>
+          <cell r="H93" t="str">
+            <v>Mastic asphalt, 27.5 mm</v>
+          </cell>
+          <cell r="I93">
+            <v>63.3</v>
+          </cell>
+          <cell r="J93" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K93">
+            <v>14.1</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>Medium density fibre board (DWD)</v>
+          </cell>
+          <cell r="B94">
+            <v>60</v>
+          </cell>
+          <cell r="H94" t="str">
+            <v>Medium density fibreboard (MDF), UF bonded</v>
+          </cell>
+          <cell r="I94">
+            <v>685</v>
+          </cell>
+          <cell r="J94" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K94">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v xml:space="preserve">Metal frame construction </v>
+          </cell>
+          <cell r="B95"/>
+          <cell r="K95"/>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>Metal frame construction with intermediate rock wool insulation</v>
+          </cell>
+          <cell r="B96">
+            <v>60</v>
+          </cell>
+          <cell r="H96" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I96" t="str">
+            <v xml:space="preserve">32-160 </v>
+          </cell>
+          <cell r="J96" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K96">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>Metal frame construction with rock wool insulation</v>
+          </cell>
+          <cell r="B97">
+            <v>60</v>
+          </cell>
+          <cell r="H97" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I97" t="str">
+            <v xml:space="preserve">32-160 </v>
+          </cell>
+          <cell r="J97" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K97">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>Metal sheets</v>
+          </cell>
+          <cell r="B98"/>
+          <cell r="K98"/>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v xml:space="preserve">Metal stud construction with intermediate rock wool insulation </v>
+          </cell>
+          <cell r="B99">
+            <v>60</v>
+          </cell>
+          <cell r="H99" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I99" t="str">
+            <v xml:space="preserve">32-160 </v>
+          </cell>
+          <cell r="J99" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K99">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>Metal, glass insert</v>
+          </cell>
+          <cell r="H100" t="str">
+            <v>Exterior door, wood, glass insert</v>
+          </cell>
+          <cell r="I100" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J100" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K100">
+            <v>97.7</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>Mineral fibre board</v>
+          </cell>
+          <cell r="B101"/>
+          <cell r="K101"/>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>Mineral plaster</v>
+          </cell>
+          <cell r="B102">
+            <v>60</v>
+          </cell>
+          <cell r="H102" t="str">
+            <v>Light plaster mineral</v>
+          </cell>
+          <cell r="I102">
+            <v>1000</v>
+          </cell>
+          <cell r="J102" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K102">
+            <v>0.36599999999999999</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>Natural stone plates</v>
+          </cell>
+          <cell r="B103">
+            <v>60</v>
+          </cell>
+          <cell r="H103" t="str">
+            <v>Ground natural stone slab, 15 mm</v>
+          </cell>
+          <cell r="I103">
+            <v>2700</v>
+          </cell>
+          <cell r="J103" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K103">
+            <v>0.39999999999999997</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>Non-woven filter (PE)</v>
+          </cell>
+          <cell r="B104">
+            <v>30</v>
+          </cell>
+          <cell r="H104" t="str">
+            <v>Polyethylene fleece (PE)</v>
+          </cell>
+          <cell r="I104">
+            <v>920</v>
+          </cell>
+          <cell r="J104" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K104">
+            <v>3.0895000000000001</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>Non-woven filter (PE) and drainage layer</v>
+          </cell>
+          <cell r="B105">
+            <v>30</v>
+          </cell>
+          <cell r="H105" t="str">
+            <v>Polyethylene fleece (PE)</v>
+          </cell>
+          <cell r="I105">
+            <v>920</v>
+          </cell>
+          <cell r="J105" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K105">
+            <v>3.0895000000000001</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>Non-woven polyethylene (PE)</v>
+          </cell>
+          <cell r="B106">
+            <v>30</v>
+          </cell>
+          <cell r="H106" t="str">
+            <v>Polyethylene fleece (PE)</v>
+          </cell>
+          <cell r="I106">
+            <v>920</v>
+          </cell>
+          <cell r="J106" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K106">
+            <v>3.0895000000000001</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>Oriented Strand Board (OSB)</v>
+          </cell>
+          <cell r="B107">
+            <v>60</v>
+          </cell>
+          <cell r="H107" t="str">
+            <v>OSB panel, PF bonded, wet area</v>
+          </cell>
+          <cell r="I107">
+            <v>605</v>
+          </cell>
+          <cell r="J107" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K107">
+            <v>0.61399999999999999</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>Particle board, emission-free ("Living board")</v>
+          </cell>
+          <cell r="B108"/>
+          <cell r="K108"/>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>Permeable fibre board (DHF)</v>
+          </cell>
+          <cell r="B109"/>
+          <cell r="K109"/>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>Phenolic foam (PF) (15 kg/m³)</v>
+          </cell>
+          <cell r="B110">
+            <v>60</v>
+          </cell>
+          <cell r="H110" t="str">
+            <v>phenolic resin (PF)</v>
+          </cell>
+          <cell r="I110">
+            <v>40</v>
+          </cell>
+          <cell r="J110" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K110">
+            <v>6.23</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>Polypropylene fleece (PP)</v>
+          </cell>
+          <cell r="B111">
+            <v>60</v>
+          </cell>
+          <cell r="H111" t="str">
+            <v>Polypropylene (PP)</v>
+          </cell>
+          <cell r="I111">
+            <v>910</v>
+          </cell>
+          <cell r="J111" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K111">
+            <v>5.43</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>Polyurethane (PUR / PIR) (30 kg/m³)</v>
+          </cell>
+          <cell r="B112">
+            <v>30</v>
+          </cell>
+          <cell r="H112" t="str">
+            <v>Polyurethane (PUR/PIR)</v>
+          </cell>
+          <cell r="I112">
+            <v>30</v>
+          </cell>
+          <cell r="J112" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K112">
+            <v>7.52</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>Polyurethane foam (PU) (30 kg/m³)</v>
+          </cell>
+          <cell r="B113">
+            <v>30</v>
+          </cell>
+          <cell r="H113" t="str">
+            <v>Polyurethane (PUR/PIR)</v>
+          </cell>
+          <cell r="I113">
+            <v>30</v>
+          </cell>
+          <cell r="J113" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K113">
+            <v>7.52</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>Poor concrete</v>
+          </cell>
+          <cell r="B114">
+            <v>60</v>
+          </cell>
+          <cell r="H114" t="str">
+            <v>lean concrete (without reinforcement)</v>
+          </cell>
+          <cell r="I114">
+            <v>2150</v>
+          </cell>
+          <cell r="J114" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K114">
+            <v>5.8999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>Protective drainage layer made of PE</v>
+          </cell>
+          <cell r="B115">
+            <v>60</v>
+          </cell>
+          <cell r="H115" t="str">
+            <v>Polyethylene fleece (PE)</v>
+          </cell>
+          <cell r="I115">
+            <v>920</v>
+          </cell>
+          <cell r="J115" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K115">
+            <v>3.0895000000000001</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>Protective Layer (PE)</v>
+          </cell>
+          <cell r="B116">
+            <v>60</v>
+          </cell>
+          <cell r="H116" t="str">
+            <v>Polyethylene fleece (PE)</v>
+          </cell>
+          <cell r="I116">
+            <v>920</v>
+          </cell>
+          <cell r="J116" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K116">
+            <v>3.0895000000000001</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>Protective sheet of rubber granulate</v>
+          </cell>
+          <cell r="B117">
+            <v>60</v>
+          </cell>
+          <cell r="H117" t="str">
+            <v>Sealed rubber granules, 7.5 mm</v>
+          </cell>
+          <cell r="I117">
+            <v>110</v>
+          </cell>
+          <cell r="J117" t="str">
+            <v>kg</v>
+          </cell>
+          <cell r="K117">
+            <v>3.2352941176470589</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>Rafters (10/14)</v>
+          </cell>
+          <cell r="B118"/>
+          <cell r="K118"/>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>Rafters with cellulose insulation</v>
+          </cell>
+          <cell r="B119">
+            <v>60</v>
+          </cell>
+          <cell r="H119" t="str">
+            <v>cellulose fibers</v>
+          </cell>
+          <cell r="I119" t="str">
+            <v xml:space="preserve">35-60 </v>
+          </cell>
+          <cell r="J119" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K119">
+            <v>0.25700000000000001</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>Reinforced concrete (m³)</v>
+          </cell>
+          <cell r="B120">
+            <v>60</v>
+          </cell>
+          <cell r="H120" t="str">
+            <v>Precast concrete part, normal concrete, ex works</v>
+          </cell>
+          <cell r="I120">
+            <v>2500</v>
+          </cell>
+          <cell r="J120" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K120">
+            <v>0.17199999999999999</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>Rock wool (100 kg/m³)</v>
+          </cell>
+          <cell r="B121">
+            <v>30</v>
+          </cell>
+          <cell r="H121" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I121">
+            <v>100</v>
+          </cell>
+          <cell r="J121" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K121">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>Rock wool (60 kg/m³)</v>
+          </cell>
+          <cell r="B122">
+            <v>30</v>
+          </cell>
+          <cell r="H122" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I122">
+            <v>60</v>
+          </cell>
+          <cell r="J122" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K122">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>Rock wool insulation</v>
+          </cell>
+          <cell r="B123">
+            <v>30</v>
+          </cell>
+          <cell r="H123" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I123" t="str">
+            <v xml:space="preserve">32-160 </v>
+          </cell>
+          <cell r="J123" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K123">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>Rock wool slab (160 kg/m³)</v>
+          </cell>
+          <cell r="B124">
+            <v>30</v>
+          </cell>
+          <cell r="H124" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I124">
+            <v>160</v>
+          </cell>
+          <cell r="J124" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K124">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>Rockwool insulation (60 kg/m³)</v>
+          </cell>
+          <cell r="B125">
+            <v>30</v>
+          </cell>
+          <cell r="H125" t="str">
+            <v>rockwool</v>
+          </cell>
+          <cell r="I125">
+            <v>60</v>
+          </cell>
+          <cell r="J125" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K125">
+            <v>1.1299999999999999</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>Sand</v>
+          </cell>
+          <cell r="B126">
+            <v>30</v>
+          </cell>
+          <cell r="H126" t="str">
+            <v>sand</v>
+          </cell>
+          <cell r="I126">
+            <v>2000</v>
+          </cell>
+          <cell r="J126" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K126">
+            <v>1.4E-2</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>Sand filling</v>
+          </cell>
+          <cell r="B127">
+            <v>30</v>
+          </cell>
+          <cell r="H127" t="str">
+            <v>sand</v>
+          </cell>
+          <cell r="I127">
+            <v>2000</v>
+          </cell>
+          <cell r="J127" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K127">
+            <v>1.4E-2</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>Sand lime brick</v>
+          </cell>
+          <cell r="B128">
+            <v>60</v>
+          </cell>
+          <cell r="H128" t="str">
+            <v>sand-lime brick</v>
+          </cell>
+          <cell r="I128">
+            <v>1400</v>
+          </cell>
+          <cell r="J128" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K128">
+            <v>0.13800000000000001</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>Sand-lime brick</v>
+          </cell>
+          <cell r="B129">
+            <v>60</v>
+          </cell>
+          <cell r="H129" t="str">
+            <v>sand-lime brick</v>
+          </cell>
+          <cell r="I129">
+            <v>1400</v>
+          </cell>
+          <cell r="J129" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K129">
+            <v>0.13800000000000001</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>Solid Oak (parquet)</v>
+          </cell>
+          <cell r="B130">
+            <v>30</v>
+          </cell>
+          <cell r="H130" t="str">
+            <v>Solid beech / oak, kiln dried, planed</v>
+          </cell>
+          <cell r="I130">
+            <v>675</v>
+          </cell>
+          <cell r="J130" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K130">
+            <v>0.126</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>Solid Spruce / Fir / Larch</v>
+          </cell>
+          <cell r="B131">
+            <v>30</v>
+          </cell>
+          <cell r="H131" t="str">
+            <v>Solid wood spruce / fir / larch, air dried, planed</v>
+          </cell>
+          <cell r="I131">
+            <v>485</v>
+          </cell>
+          <cell r="J131" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K131">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>Solid Spruce / Fir / Larch (parquet)</v>
+          </cell>
+          <cell r="B132">
+            <v>30</v>
+          </cell>
+          <cell r="H132" t="str">
+            <v>Solid wood spruce / fir / larch, air dried, planed</v>
+          </cell>
+          <cell r="I132">
+            <v>485</v>
+          </cell>
+          <cell r="J132" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K132">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>Solid wood (m³)</v>
+          </cell>
+          <cell r="B133">
+            <v>30</v>
+          </cell>
+          <cell r="H133" t="str">
+            <v>Solid wood spruce / fir / larch, air dried, planed</v>
+          </cell>
+          <cell r="I133">
+            <v>485</v>
+          </cell>
+          <cell r="J133" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K133">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>Solid wood (spruce), raw</v>
+          </cell>
+          <cell r="B134">
+            <v>30</v>
+          </cell>
+          <cell r="H134" t="str">
+            <v>Solid wood spruce / fir / larch, air dried, planed</v>
+          </cell>
+          <cell r="I134">
+            <v>485</v>
+          </cell>
+          <cell r="J134" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K134">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>Steel (filled with quarry sand) - volume (m³)</v>
+          </cell>
+          <cell r="B135">
+            <v>60</v>
+          </cell>
+          <cell r="H135" t="str">
+            <v>reinforcement steel</v>
+          </cell>
+          <cell r="I135">
+            <v>7850</v>
+          </cell>
+          <cell r="J135" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K135">
+            <v>0.68200000000000005</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
+            <v>Steel (filled with sand) (m³)</v>
+          </cell>
+          <cell r="B136">
+            <v>60</v>
+          </cell>
+          <cell r="H136" t="str">
+            <v>reinforcement steel</v>
+          </cell>
+          <cell r="I136">
+            <v>7850</v>
+          </cell>
+          <cell r="J136" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K136">
+            <v>0.68200000000000005</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
+            <v>Stucco</v>
+          </cell>
+          <cell r="B137">
+            <v>60</v>
+          </cell>
+          <cell r="H137" t="str">
+            <v>Lime-cement/cement-lime plaster</v>
+          </cell>
+          <cell r="I137">
+            <v>1550</v>
+          </cell>
+          <cell r="J137" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K137">
+            <v>0.247</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138" t="str">
+            <v>Substrate for vegetation</v>
+          </cell>
+          <cell r="K138">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139" t="str">
+            <v>Sun care Coating</v>
+          </cell>
+          <cell r="K139"/>
+        </row>
+        <row r="140">
+          <cell r="A140" t="str">
+            <v>Suspension ceiling lining with intermediate rock wool insulation (0.06 m)</v>
+          </cell>
+          <cell r="B140"/>
+          <cell r="K140"/>
+        </row>
+        <row r="141">
+          <cell r="A141" t="str">
+            <v>Synthetic rubber mat with nubs</v>
+          </cell>
+          <cell r="B141"/>
+          <cell r="K141"/>
+        </row>
+        <row r="142">
+          <cell r="A142" t="str">
+            <v>Tile / brick &amp; timber construction, battens</v>
+          </cell>
+          <cell r="B142">
+            <v>30</v>
+          </cell>
+          <cell r="H142" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I142">
+            <v>470</v>
+          </cell>
+          <cell r="J142" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K142">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143" t="str">
+            <v>Timber battens</v>
+          </cell>
+          <cell r="B143">
+            <v>30</v>
+          </cell>
+          <cell r="H143" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I143">
+            <v>470</v>
+          </cell>
+          <cell r="J143" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K143">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144" t="str">
+            <v>Timber battens (30/60)</v>
+          </cell>
+          <cell r="B144">
+            <v>30</v>
+          </cell>
+          <cell r="H144" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I144">
+            <v>470</v>
+          </cell>
+          <cell r="J144" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K144">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145" t="str">
+            <v>Timber battens (40/80) with intermediate rock wool insulation (60 kg/m³)</v>
+          </cell>
+          <cell r="B145">
+            <v>30</v>
+          </cell>
+          <cell r="H145" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I145">
+            <v>470</v>
+          </cell>
+          <cell r="J145" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K145">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v xml:space="preserve">Timber battens (50/80) with intermediate rock wool insulation </v>
+          </cell>
+          <cell r="B146">
+            <v>30</v>
+          </cell>
+          <cell r="H146" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I146">
+            <v>470</v>
+          </cell>
+          <cell r="J146" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K146">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>Timber battens (60/130)</v>
+          </cell>
+          <cell r="B147">
+            <v>30</v>
+          </cell>
+          <cell r="H147" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I147">
+            <v>470</v>
+          </cell>
+          <cell r="J147" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K147">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>Timber battens (60/30)</v>
+          </cell>
+          <cell r="B148">
+            <v>30</v>
+          </cell>
+          <cell r="H148" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I148">
+            <v>470</v>
+          </cell>
+          <cell r="J148" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K148">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>Timber battens and air cavity</v>
+          </cell>
+          <cell r="B149">
+            <v>30</v>
+          </cell>
+          <cell r="H149" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I149">
+            <v>470</v>
+          </cell>
+          <cell r="J149" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K149">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>Timber battens and counter battens</v>
+          </cell>
+          <cell r="B150">
+            <v>30</v>
+          </cell>
+          <cell r="H150" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I150">
+            <v>470</v>
+          </cell>
+          <cell r="J150" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K150">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v xml:space="preserve">Timber battens and counter battens with air cavity </v>
+          </cell>
+          <cell r="B151">
+            <v>30</v>
+          </cell>
+          <cell r="H151" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I151">
+            <v>470</v>
+          </cell>
+          <cell r="J151" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K151">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v xml:space="preserve">Timber battens and counter battens with intermediate air space </v>
+          </cell>
+          <cell r="B152">
+            <v>30</v>
+          </cell>
+          <cell r="H152" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I152">
+            <v>470</v>
+          </cell>
+          <cell r="J152" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K152">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>Timber battens with intermediate</v>
+          </cell>
+          <cell r="B153">
+            <v>30</v>
+          </cell>
+          <cell r="H153" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I153">
+            <v>470</v>
+          </cell>
+          <cell r="J153" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K153">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v xml:space="preserve">Timber battens with intermediate air space  </v>
+          </cell>
+          <cell r="B154">
+            <v>30</v>
+          </cell>
+          <cell r="H154" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I154">
+            <v>470</v>
+          </cell>
+          <cell r="J154" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K154">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v xml:space="preserve">Timber battens with intermediate glass wool </v>
+          </cell>
+          <cell r="B155">
+            <v>30</v>
+          </cell>
+          <cell r="H155" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I155">
+            <v>470</v>
+          </cell>
+          <cell r="J155" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K155">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>Timber battens with intermediate glass wool mat (30 kg/m³)</v>
+          </cell>
+          <cell r="B156">
+            <v>30</v>
+          </cell>
+          <cell r="H156" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I156">
+            <v>470</v>
+          </cell>
+          <cell r="J156" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K156">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>Timber battens with intermediate insulation</v>
+          </cell>
+          <cell r="B157">
+            <v>30</v>
+          </cell>
+          <cell r="H157" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I157">
+            <v>470</v>
+          </cell>
+          <cell r="J157" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K157">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>Timber battens with intermediate insulation (0.3 m) and installation gap (0.05 m)</v>
+          </cell>
+          <cell r="B158">
+            <v>30</v>
+          </cell>
+          <cell r="H158" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I158">
+            <v>470</v>
+          </cell>
+          <cell r="J158" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K158">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>Timber battens with intermediate rock wool insulation</v>
+          </cell>
+          <cell r="B159">
+            <v>30</v>
+          </cell>
+          <cell r="H159" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I159">
+            <v>470</v>
+          </cell>
+          <cell r="J159" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K159">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v xml:space="preserve">Timber battens with rock wool (60 kg/m³ </v>
+          </cell>
+          <cell r="B160">
+            <v>30</v>
+          </cell>
+          <cell r="H160" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I160">
+            <v>470</v>
+          </cell>
+          <cell r="J160" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K160">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>Timber battens with sand fill</v>
+          </cell>
+          <cell r="B161">
+            <v>30</v>
+          </cell>
+          <cell r="H161" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I161">
+            <v>470</v>
+          </cell>
+          <cell r="J161" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K161">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>Timber cladding</v>
+          </cell>
+          <cell r="B162">
+            <v>30</v>
+          </cell>
+          <cell r="H162" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I162">
+            <v>470</v>
+          </cell>
+          <cell r="J162" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K162">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>Timber frame construction</v>
+          </cell>
+          <cell r="B163">
+            <v>30</v>
+          </cell>
+          <cell r="H163" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I163">
+            <v>470</v>
+          </cell>
+          <cell r="J163" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K163">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v xml:space="preserve">Timber frame construction 60/320 with intermediate cellulose insulation, timber ratio 12% </v>
+          </cell>
+          <cell r="B164">
+            <v>30</v>
+          </cell>
+          <cell r="H164" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I164">
+            <v>470</v>
+          </cell>
+          <cell r="J164" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K164">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>Timber frame construction with cellulose insulation (50 kg/m3)</v>
+          </cell>
+          <cell r="B165">
+            <v>30</v>
+          </cell>
+          <cell r="H165" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I165">
+            <v>470</v>
+          </cell>
+          <cell r="J165" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K165">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>Timber frame construction with intermediate cellulose fibre insulation</v>
+          </cell>
+          <cell r="B166">
+            <v>30</v>
+          </cell>
+          <cell r="H166" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I166">
+            <v>470</v>
+          </cell>
+          <cell r="J166" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K166">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>timber frame construction with intermediate glass wool insulation</v>
+          </cell>
+          <cell r="B167">
+            <v>30</v>
+          </cell>
+          <cell r="H167" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I167">
+            <v>470</v>
+          </cell>
+          <cell r="J167" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K167">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>Timber frame construction with intermediate insulation (glass wool) (30 kg/m³)</v>
+          </cell>
+          <cell r="B168">
+            <v>30</v>
+          </cell>
+          <cell r="H168" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I168">
+            <v>470</v>
+          </cell>
+          <cell r="J168" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K168">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v xml:space="preserve">Timber frame construction with intermediate rock wool insulation (60 kg/m³) </v>
+          </cell>
+          <cell r="B169">
+            <v>30</v>
+          </cell>
+          <cell r="H169" t="str">
+            <v>Glued laminated timber, UF bonded, dry area</v>
+          </cell>
+          <cell r="I169">
+            <v>470</v>
+          </cell>
+          <cell r="J169" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K169">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
+            <v>Vapour barrier of polyethylene (PE)</v>
+          </cell>
+          <cell r="B170">
+            <v>30</v>
+          </cell>
+          <cell r="H170" t="str">
+            <v>Polyethylene (PE) vapor barrier</v>
+          </cell>
+          <cell r="I170">
+            <v>920</v>
+          </cell>
+          <cell r="J170" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K170">
+            <v>5.33</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>Vapour barrier of polypropylene nonwoven</v>
+          </cell>
+          <cell r="B171">
+            <v>30</v>
+          </cell>
+          <cell r="K171"/>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>Wind paper</v>
+          </cell>
+          <cell r="B172">
+            <v>30</v>
+          </cell>
+          <cell r="K172"/>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>Wood wool board, cement bonded</v>
+          </cell>
+          <cell r="B173">
+            <v>30</v>
+          </cell>
+          <cell r="H173" t="str">
+            <v>Wood wool lightweight board, cement-bound</v>
+          </cell>
+          <cell r="I173">
+            <v>400</v>
+          </cell>
+          <cell r="J173" t="str">
+            <v xml:space="preserve">kg </v>
+          </cell>
+          <cell r="K173">
+            <v>0.55400000000000005</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v>Wood, aluminum clad</v>
+          </cell>
+          <cell r="B174">
+            <v>30</v>
+          </cell>
+          <cell r="H174" t="str">
+            <v>Exterior door, wood, aluminium-clad</v>
+          </cell>
+          <cell r="I174" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J174" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K174">
+            <v>77.599999999999994</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>Metal-glass insert</v>
+          </cell>
+          <cell r="B175">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176" t="str">
+            <v xml:space="preserve">Metal with glass insert </v>
+          </cell>
+          <cell r="B176">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177" t="str">
+            <v xml:space="preserve">Wood, glass insert </v>
+          </cell>
+          <cell r="B177">
+            <v>30</v>
+          </cell>
+          <cell r="H177" t="str">
+            <v>Exterior door, wood, glass insert</v>
+          </cell>
+          <cell r="I177" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J177" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K177">
+            <v>97.7</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178" t="str">
+            <v>Wood/ aluminium, triple glazing</v>
+          </cell>
+          <cell r="B178">
+            <v>30</v>
+          </cell>
+          <cell r="H178" t="str">
+            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
+          </cell>
+          <cell r="I178">
+            <v>83.4</v>
+          </cell>
+          <cell r="J178" t="str">
+            <v>kg</v>
+          </cell>
+          <cell r="K178">
+            <v>0.13719999999999999</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179"/>
+          <cell r="B179">
+            <v>30</v>
+          </cell>
+          <cell r="H179" t="str">
+            <v>Triple glazing, Ug value 0.6 W/m 2K, thickness 40 mm</v>
+          </cell>
+          <cell r="I179" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J179" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K179">
+            <v>66.8</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180" t="str">
+            <v>Wood/ aluminium, double glazing</v>
+          </cell>
+          <cell r="B180">
+            <v>30</v>
+          </cell>
+          <cell r="H180" t="str">
+            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
+          </cell>
+          <cell r="I180">
+            <v>83.4</v>
+          </cell>
+          <cell r="J180" t="str">
+            <v>kg</v>
+          </cell>
+          <cell r="K180">
+            <v>0.13719999999999999</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181"/>
+          <cell r="B181">
+            <v>30</v>
+          </cell>
+          <cell r="H181" t="str">
+            <v>Double insulating glazing, Ug value 1.1 W/m 2K, thickness 24 mm</v>
+          </cell>
+          <cell r="I181" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J181" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K181">
+            <v>43.7</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182" t="str">
+            <v>Wood/ aluminium, transparent insulation</v>
+          </cell>
+          <cell r="B182">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183" t="str">
+            <v>Aluminium overhead light</v>
+          </cell>
+          <cell r="B183">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184" t="str">
+            <v>Wood, triple glazing</v>
+          </cell>
+          <cell r="B184">
+            <v>30</v>
+          </cell>
+          <cell r="H184" t="str">
+            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
+          </cell>
+          <cell r="I184">
+            <v>83.4</v>
+          </cell>
+          <cell r="J184" t="str">
+            <v>kg</v>
+          </cell>
+          <cell r="K184">
+            <v>0.13719999999999999</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185"/>
+          <cell r="B185">
+            <v>30</v>
+          </cell>
+          <cell r="H185" t="str">
+            <v>Triple glazing, Ug value 0.6 W/m 2K, thickness 40 mm</v>
+          </cell>
+          <cell r="I185" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J185" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K185">
+            <v>66.8</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186" t="str">
+            <v xml:space="preserve">Wood, double glazing </v>
+          </cell>
+          <cell r="B186">
+            <v>30</v>
+          </cell>
+          <cell r="H186" t="str">
+            <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
+          </cell>
+          <cell r="I186">
+            <v>83.4</v>
+          </cell>
+          <cell r="J186" t="str">
+            <v>kg</v>
+          </cell>
+          <cell r="K186">
+            <v>0.13719999999999999</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187"/>
+          <cell r="B187">
+            <v>30</v>
+          </cell>
+          <cell r="H187" t="str">
+            <v>Double insulating glazing, Ug value 1.1 W/m 2K, thickness 24 mm</v>
+          </cell>
+          <cell r="I187" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J187" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K187">
+            <v>43.7</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188" t="str">
+            <v xml:space="preserve">Plastic, double glazing </v>
+          </cell>
+          <cell r="B188">
+            <v>30</v>
+          </cell>
+          <cell r="H188" t="str">
+            <v>Plastic/PVC window frame</v>
+          </cell>
+          <cell r="I188" t="str">
+            <v xml:space="preserve">- </v>
+          </cell>
+          <cell r="J188" t="str">
+            <v xml:space="preserve">m2 </v>
+          </cell>
+          <cell r="K188">
+            <v>285</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189" t="str">
+            <v>Electricity</v>
+          </cell>
+          <cell r="B189"/>
+          <cell r="H189" t="str">
+            <v>'market for electricity, low voltage'</v>
+          </cell>
+          <cell r="J189" t="str">
+            <v>kWh</v>
+          </cell>
+          <cell r="K189">
+            <v>4.4990000000000002E-2</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (135 kW)</v>
+          </cell>
+          <cell r="H190" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J190" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K190">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191" t="str">
+            <v>Combined with central heat generator: District heating</v>
+          </cell>
+          <cell r="H191" t="str">
+            <v>heat, from municipal waste incineration to generic market for heat district or industrial, other than natural gas</v>
+          </cell>
+          <cell r="J191" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K191">
+            <v>1.85E-4</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192" t="str">
+            <v xml:space="preserve">Central hot water only, electric heat pump </v>
+          </cell>
+          <cell r="H192" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J192" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K192">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (16.7 kW)</v>
+          </cell>
+          <cell r="H193" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J193" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K193">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (60 kW)</v>
+          </cell>
+          <cell r="H194" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J194" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K194">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195" t="str">
+            <v>Combined with central heat generator: Wood pellet heating (67.2 kW)</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196" t="str">
+            <v>Central, hot water only: Modulating condensing boiler (kW 70)</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (24.9 kW)</v>
+          </cell>
+          <cell r="H197" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J197" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K197">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198" t="str">
+            <v>Combined with central heat generator: Electric heat pump, air water (4.2 kW)</v>
+          </cell>
+          <cell r="H198" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J198" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K198">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199" t="str">
+            <v>Near/ district heating from cogeneration</v>
+          </cell>
+          <cell r="H199" t="str">
+            <v>heat, from municipal waste incineration to generic market for heat district or industrial, other than natural gas</v>
+          </cell>
+          <cell r="J199" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K199">
+            <v>1.85E-4</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (40.8 kW)</v>
+          </cell>
+          <cell r="H200" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J200" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K200">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201" t="str">
+            <v>Combined with central heat generator: Electric heat pump water brine (28.1 kW)</v>
+          </cell>
+          <cell r="H201" t="str">
+            <v>heat production, borehole heat exchanger, brine-water heat pump 10kW</v>
+          </cell>
+          <cell r="J201" t="str">
+            <v>megajoule</v>
+          </cell>
+          <cell r="K201">
+            <v>8.2799999999999992E-3</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202" t="str">
+            <v>wood chips</v>
+          </cell>
+          <cell r="H202" t="str">
+            <v>heat production, wood chips from industry, at furnace 300kW, state-of-the-art 2014' (megajoule, CH, None)</v>
+          </cell>
+          <cell r="K202">
+            <v>7.1700000000000002E-3</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203" t="str">
+            <v>lorry</v>
+          </cell>
+          <cell r="H203" t="str">
+            <v>'market for transport, freight, lorry 28 metric ton, fatty acid methyl ester 100%' (ton kilometer, CH, None)</v>
+          </cell>
+          <cell r="K203">
+            <v>0.11509999999999999</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="24">
-          <cell r="B24">
-            <v>73.099999999999994</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7873,19 +8675,19 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7917,7 +8719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -7949,7 +8751,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7960,7 +8762,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7968,7 +8770,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -7976,7 +8778,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -7990,7 +8792,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7998,7 +8800,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -8006,7 +8808,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -8017,7 +8819,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -8025,7 +8827,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -8033,7 +8835,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -8041,7 +8843,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -8049,7 +8851,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -8057,7 +8859,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -8065,7 +8867,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -8076,7 +8878,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -8084,7 +8886,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -8092,7 +8894,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -8100,7 +8902,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -8108,7 +8910,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -8116,7 +8918,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -8124,7 +8926,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -8138,7 +8940,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -8146,7 +8948,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8157,7 +8959,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8165,7 +8967,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8173,7 +8975,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8184,7 +8986,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -8192,12 +8994,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -8205,7 +9007,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -8213,7 +9015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -8221,7 +9023,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -8243,13 +9045,13 @@
       <selection activeCell="A72" sqref="A72:B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8257,7 +9059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8265,7 +9067,7 @@
         <v>190.95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8273,7 +9075,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8281,7 +9083,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -8289,7 +9091,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -8297,7 +9099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8305,7 +9107,7 @@
         <v>149.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -8313,7 +9115,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -8321,7 +9123,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -8329,7 +9131,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -8337,7 +9139,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -8345,7 +9147,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -8353,7 +9155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -8361,7 +9163,7 @@
         <v>396.9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -8369,7 +9171,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -8377,7 +9179,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -8385,7 +9187,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -8393,7 +9195,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -8401,7 +9203,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -8409,7 +9211,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -8417,7 +9219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -8425,7 +9227,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -8433,7 +9235,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -8441,7 +9243,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -8449,7 +9251,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -8457,7 +9259,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -8465,7 +9267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -8473,7 +9275,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -8481,7 +9283,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -8489,7 +9291,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -8497,7 +9299,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -8505,7 +9307,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -8513,7 +9315,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -8521,7 +9323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -8529,7 +9331,7 @@
         <v>128.69999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -8537,7 +9339,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -8545,7 +9347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -8553,7 +9355,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -8561,7 +9363,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -8569,7 +9371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -8577,7 +9379,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -8585,7 +9387,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -8593,7 +9395,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -8601,7 +9403,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -8609,7 +9411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -8617,7 +9419,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -8625,7 +9427,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -8633,7 +9435,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -8641,7 +9443,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -8649,7 +9451,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -8657,7 +9459,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -8665,7 +9467,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -8673,12 +9475,12 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -8686,7 +9488,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -8694,7 +9496,7 @@
         <v>164.39</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -8708,18 +9510,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A131" sqref="A1:XFD131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -8727,7 +9529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -8759,7 +9561,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8767,7 +9569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -8775,7 +9577,7 @@
         <v>190.95</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -8783,30 +9585,30 @@
         <v>0.04</v>
       </c>
       <c r="C6">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A6,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A6,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D6" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A6,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A6,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Cement subfloor, 85 mm</v>
       </c>
       <c r="E6">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A6,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A6,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>1850</v>
       </c>
       <c r="F6">
         <v>1850</v>
       </c>
       <c r="G6" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A6,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A6,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H6">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A6,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A6,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.125</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6" si="0">B6*F6*H6*B$1/C6/B$1</f>
+        <f>B6*F6*H6*B$1/C6/B$1</f>
         <v>0.30833333333333335</v>
       </c>
       <c r="J6">
@@ -8814,7 +9616,7 @@
         <v>28.2606</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -8822,26 +9624,26 @@
         <v>0.22</v>
       </c>
       <c r="C7">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A7,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A7,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>60</v>
       </c>
       <c r="D7" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A7,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A7,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>civil engineering concrete (without reinforcement)</v>
       </c>
       <c r="E7">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A7,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A7,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>2350</v>
       </c>
       <c r="F7">
         <v>2350</v>
       </c>
       <c r="G7" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A7,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A7,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H7">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A7,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A7,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>1.4E-2</v>
       </c>
       <c r="I7">
@@ -8849,11 +9651,11 @@
         <v>0.12063333333333334</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J9" si="1">F7*B7*B$5*B$1/C7/1000</f>
+        <f>F7*B7*B$5*B$1/C7/1000</f>
         <v>98.721149999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.22</v>
       </c>
@@ -8880,11 +9682,11 @@
         <v>0.20005333333333336</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f>F8*B8*B$5*B$1/C8/1000</f>
         <v>3.3607200000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -8892,27 +9694,27 @@
         <v>0.4</v>
       </c>
       <c r="C9">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A9,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A9,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>60</v>
       </c>
       <c r="D9" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A9,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A9,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>foam glass gravel</v>
       </c>
-      <c r="E9" t="str">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A9,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
-        <v xml:space="preserve">125-150 </v>
+      <c r="E9">
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A9,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
+        <v>150</v>
       </c>
       <c r="F9">
         <f>275/2</f>
         <v>137.5</v>
       </c>
       <c r="G9" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A9,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A9,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H9">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A9,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A9,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.155</v>
       </c>
       <c r="I9">
@@ -8920,18 +9722,18 @@
         <v>0.14208333333333334</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>F9*B9*B$5*B$1/C9/1000</f>
         <v>10.50225</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I10" s="2">
         <f>SUM(I6:I9)</f>
         <v>0.77110333333333347</v>
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -8939,7 +9741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -8947,7 +9749,7 @@
         <v>149.1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -8955,15 +9757,15 @@
         <v>0.05</v>
       </c>
       <c r="C14">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A14,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A14,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D14" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A14,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A14,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Cement subfloor, 85 mm</v>
       </c>
       <c r="E14">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A14,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A14,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>1850</v>
       </c>
       <c r="F14">
@@ -8971,15 +9773,15 @@
         <v>1850</v>
       </c>
       <c r="G14" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A14,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A14,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H14">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A14,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A14,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.125</v>
       </c>
       <c r="I14">
-        <f>B14*F14*H14*B$1/C14/B$1</f>
+        <f t="shared" ref="I14:I19" si="0">B14*F14*H14*B$1/C14/B$1</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="J14">
@@ -8987,7 +9789,7 @@
         <v>27.583500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -8995,39 +9797,39 @@
         <v>0.22</v>
       </c>
       <c r="C15">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A15,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A15,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>60</v>
       </c>
       <c r="D15" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A15,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A15,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>civil engineering concrete (without reinforcement)</v>
       </c>
       <c r="E15">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A15,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A15,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>2350</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F19" si="2">E15</f>
+        <f>E15</f>
         <v>2350</v>
       </c>
       <c r="G15" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A15,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A15,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H15">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A15,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A15,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>1.4E-2</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I19" si="3">B15*F15*H15*B$1/C15/B$1</f>
+        <f t="shared" si="0"/>
         <v>0.12063333333333334</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J19" si="4">F15*B15*B$5*B$1/C15/1000</f>
+        <f>F15*B15*B$5*B$1/C15/1000</f>
         <v>98.721149999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0.22</v>
       </c>
@@ -9050,15 +9852,15 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.20005333333333336</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
+        <f>F16*B16*B$5*B$1/C16/1000</f>
         <v>3.3607200000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
@@ -9066,39 +9868,39 @@
         <v>0.18</v>
       </c>
       <c r="C17">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A17,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A17,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D17" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A17,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A17,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Polyurethane (PUR/PIR)</v>
       </c>
       <c r="E17">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A17,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A17,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f>E17</f>
         <v>30</v>
       </c>
       <c r="G17" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A17,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A17,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H17">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A17,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A17,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>7.52</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.3535999999999999</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
+        <f>F17*B17*B$5*B$1/C17/1000</f>
         <v>2.0622599999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -9106,42 +9908,42 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C18">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A18,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A18,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D18" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A18,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A18,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Solid wood spruce / fir / larch, air dried, planed</v>
       </c>
       <c r="E18">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A18,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A18,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>485</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f>E18</f>
         <v>485</v>
       </c>
       <c r="G18" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A18,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A18,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H18">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A18,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A18,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.125</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.0312499999999999E-2</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
+        <f>F18*B18*B$5*B$1/C18/1000</f>
         <v>2.7783224999999998</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -9149,45 +9951,45 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C19">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A19,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A19,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D19" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A19,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A19,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Polyethylene (PE) vapor barrier</v>
       </c>
       <c r="E19">
         <v>80</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f>E19</f>
         <v>80</v>
       </c>
       <c r="G19" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A19,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A19,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H19">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A19,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A19,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>5.33</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.842666666666667E-3</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
+        <f>F19*B19*B$5*B$1/C19/1000</f>
         <v>6.1103999999999993E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I20" s="2">
         <f>SUM(I14:I19)</f>
         <v>2.0928584999999997</v>
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -9195,7 +9997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -9203,7 +10005,7 @@
         <v>396.9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -9211,15 +10013,15 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="C24">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A24,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A24,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>60</v>
       </c>
       <c r="D24" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A24,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A24,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>3-layer solid wood panel, PVAc bonded</v>
       </c>
       <c r="E24">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A24,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A24,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>470</v>
       </c>
       <c r="F24">
@@ -9227,11 +10029,11 @@
         <v>470</v>
       </c>
       <c r="G24" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A24,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A24,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H24">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A24,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A24,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.52300000000000002</v>
       </c>
       <c r="I24">
@@ -9243,7 +10045,7 @@
         <v>30.779594999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -9251,39 +10053,39 @@
         <v>0.05</v>
       </c>
       <c r="C25">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A25,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A25,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D25" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A25,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A25,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Cement subfloor, 85 mm</v>
       </c>
       <c r="E25">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A25,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A25,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>1850</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F30" si="5">E25</f>
+        <f t="shared" ref="F25:F30" si="1">E25</f>
         <v>1850</v>
       </c>
       <c r="G25" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A25,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A25,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H25">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A25,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A25,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.125</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I30" si="6">B25*F25*H25*B$1/C25/B$1</f>
+        <f t="shared" ref="I25:I30" si="2">B25*F25*H25*B$1/C25/B$1</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25:J30" si="7">F25*B25*B$23*B$1/C25/1000</f>
+        <f t="shared" ref="J25:J30" si="3">F25*B25*B$23*B$1/C25/1000</f>
         <v>73.426500000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -9291,38 +10093,38 @@
         <v>0.03</v>
       </c>
       <c r="C26">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A26,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A26,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D26" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A26,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A26,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Expanded polystyrene (EPS)</v>
       </c>
       <c r="E26">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A26,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A26,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="F26">
         <v>30</v>
       </c>
       <c r="G26" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A26,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A26,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H26">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A26,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A26,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>7.64</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.22919999999999999</v>
       </c>
       <c r="J26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.71441999999999983</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -9330,39 +10132,39 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C27">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A27,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A27,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D27" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A27,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A27,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Solid wood spruce / fir / larch, air dried, planed</v>
       </c>
       <c r="E27">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A27,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A27,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>485</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>485</v>
       </c>
       <c r="G27" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A27,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A27,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H27">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A27,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A27,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.125</v>
       </c>
       <c r="I27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.0312499999999999E-2</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>5.7748949999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -9370,27 +10172,27 @@
         <v>0.06</v>
       </c>
       <c r="C28">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A28,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A28,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D28" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A28,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A28,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Glued laminated timber, UF bonded, dry area</v>
       </c>
       <c r="E28">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A28,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A28,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>470</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
       <c r="G28" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A28,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A28,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H28">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A28,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A28,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.44600000000000001</v>
       </c>
       <c r="I28">
@@ -9405,7 +10207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>0.06</v>
       </c>
@@ -9419,7 +10221,7 @@
         <v>2000</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G29" t="s">
@@ -9440,7 +10242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -9448,46 +10250,46 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C30">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A30,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A30,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D30" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A30,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A30,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Polyethylene (PE) vapor barrier</v>
       </c>
       <c r="E30">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A30,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A30,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>920</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>920</v>
       </c>
       <c r="G30" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A30,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A30,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H30">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A30,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A30,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>5.33</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.2690666666666666E-2</v>
       </c>
       <c r="J30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.14605919999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I31" s="2">
         <f>SUM(I24:I30)</f>
         <v>1.4386565333333337</v>
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -9495,7 +10297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -9503,7 +10305,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -9511,15 +10313,15 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C35">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A35,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A35,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>60</v>
       </c>
       <c r="D35" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A35,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A35,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>3-layer solid wood panel, PVAc bonded</v>
       </c>
       <c r="E35">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A35,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A35,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>470</v>
       </c>
       <c r="F35">
@@ -9527,11 +10329,11 @@
         <v>470</v>
       </c>
       <c r="G35" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A35,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A35,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H35">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A35,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A35,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.52300000000000002</v>
       </c>
       <c r="I35">
@@ -9543,7 +10345,7 @@
         <v>6.1194000000000024</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -9551,27 +10353,27 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="C36">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A36,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A36,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D36" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A36,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A36,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Medium density fibreboard (MDF), UF bonded</v>
       </c>
       <c r="E36">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A36,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A36,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>685</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F41" si="8">E36</f>
+        <f t="shared" ref="F36:F41" si="4">E36</f>
         <v>685</v>
       </c>
       <c r="G36" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A36,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A36,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H36">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A36,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A36,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>1.04</v>
       </c>
       <c r="I36">
@@ -9579,11 +10381,11 @@
         <v>0.52242666666666659</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:J37" si="9">F36*B36*B$34*B$1/C36/1000</f>
+        <f>F36*B36*B$34*B$1/C36/1000</f>
         <v>11.212079999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -9591,39 +10393,39 @@
         <v>0.01</v>
       </c>
       <c r="C37">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A37,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A37,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D37" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A37,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A37,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>gypsum-lime plaster</v>
       </c>
       <c r="E37">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A37,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A37,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>925</v>
       </c>
       <c r="F37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>925</v>
       </c>
       <c r="G37" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A37,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A37,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H37">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A37,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A37,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.155</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37" si="10">B37*F37*H37*B$1/C37/B$1</f>
+        <f>B37*F37*H37*B$1/C37/B$1</f>
         <v>4.779166666666667E-2</v>
       </c>
       <c r="J37">
-        <f t="shared" si="9"/>
+        <f>F37*B37*B$34*B$1/C37/1000</f>
         <v>6.8819999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -9631,27 +10433,27 @@
         <v>0.26</v>
       </c>
       <c r="C38">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A38,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A38,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D38" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A38,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A38,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Glued laminated timber, UF bonded, dry area</v>
       </c>
       <c r="E38">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A38,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A38,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>470</v>
       </c>
       <c r="F38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>470</v>
       </c>
       <c r="G38" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A38,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A38,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H38">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A38,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A38,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.44600000000000001</v>
       </c>
       <c r="I38">
@@ -9666,7 +10468,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0.26</v>
       </c>
@@ -9693,14 +10495,14 @@
         <v>0.47008000000000005</v>
       </c>
       <c r="J39">
-        <f t="shared" ref="J39:J42" si="11">F39*B39*B$34*B$1/C39/1000*K39</f>
+        <f>F39*B39*B$34*B$1/C39/1000*K39</f>
         <v>9.2851200000000009</v>
       </c>
       <c r="K39" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -9708,27 +10510,27 @@
         <v>0.02</v>
       </c>
       <c r="C40">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A40,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A40,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D40" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A40,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A40,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Solid wood spruce / fir / larch, air dried, planed</v>
       </c>
       <c r="E40">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A40,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A40,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>485</v>
       </c>
       <c r="F40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>485</v>
       </c>
       <c r="G40" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A40,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A40,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H40">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A40,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A40,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.125</v>
       </c>
       <c r="I40">
@@ -9736,14 +10538,14 @@
         <v>4.041666666666667E-2</v>
       </c>
       <c r="J40">
-        <f t="shared" si="11"/>
+        <f>F40*B40*B$34*B$1/C40/1000*K40</f>
         <v>7.216800000000001</v>
       </c>
       <c r="K40" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -9754,23 +10556,23 @@
         <v>30</v>
       </c>
       <c r="D41" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A41,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A41,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Glued laminated timber, UF bonded, dry area</v>
       </c>
       <c r="E41">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A41,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A41,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>470</v>
       </c>
       <c r="F41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>470</v>
       </c>
       <c r="G41" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A41,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A41,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H41">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A41,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A41,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.44600000000000001</v>
       </c>
       <c r="I41">
@@ -9778,14 +10580,14 @@
         <v>5.5898666666666666E-2</v>
       </c>
       <c r="J41">
-        <f t="shared" si="11"/>
+        <f>F41*B41*B$34*B$1/C41/1000*K41</f>
         <v>2.7974400000000004</v>
       </c>
       <c r="K41" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0.08</v>
       </c>
@@ -9812,21 +10614,21 @@
         <v>0.16271999999999998</v>
       </c>
       <c r="J42">
-        <f t="shared" si="11"/>
+        <f>F42*B42*B$34*B$1/C42/1000*K42</f>
         <v>3.2140799999999996</v>
       </c>
       <c r="K42" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I43" s="2">
         <f>SUM(I35:I41)</f>
         <v>1.6433441666666668</v>
       </c>
       <c r="J43" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -9834,7 +10636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -9842,7 +10644,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -9850,15 +10652,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C47">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A47,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A47,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D47" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A47,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A47,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>hot bitumen</v>
       </c>
       <c r="E47">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A47,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A47,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>1000</v>
       </c>
       <c r="F47">
@@ -9866,23 +10668,23 @@
         <v>1000</v>
       </c>
       <c r="G47" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A47,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A47,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H47">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A47,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A47,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>3.06</v>
       </c>
       <c r="I47">
-        <f>B47*F47*H47*B$1/C47/B$1</f>
+        <f t="shared" ref="I47:I52" si="5">B47*F47*H47*B$1/C47/B$1</f>
         <v>0.30599999999999999</v>
       </c>
       <c r="J47">
-        <f>F47*B47*B$46*B$1/C47/1000</f>
+        <f t="shared" ref="J47:J52" si="6">F47*B47*B$46*B$1/C47/1000</f>
         <v>1.56</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -9890,39 +10692,39 @@
         <v>0.25</v>
       </c>
       <c r="C48">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A48,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A48,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>60</v>
       </c>
       <c r="D48" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A48,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A48,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>civil engineering concrete (without reinforcement)</v>
       </c>
       <c r="E48">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A48,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A48,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>2350</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F48:F52" si="12">E48</f>
+        <f>E48</f>
         <v>2350</v>
       </c>
       <c r="G48" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A48,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A48,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H48">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A48,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A48,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>1.4E-2</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="I48:I52" si="13">B48*F48*H48*B$1/C48/B$1</f>
+        <f t="shared" si="5"/>
         <v>0.13708333333333333</v>
       </c>
       <c r="J48">
-        <f t="shared" ref="J48:J52" si="14">F48*B48*B$46*B$1/C48/1000</f>
+        <f t="shared" si="6"/>
         <v>152.75</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>0.25</v>
       </c>
@@ -9945,15 +10747,15 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="I49">
-        <f>B49*F49*H49*B$1/C49/B$1</f>
+        <f t="shared" si="5"/>
         <v>0.17050000000000001</v>
       </c>
       <c r="J49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>3.9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -9961,39 +10763,39 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C50">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A50,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A50,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D50" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A50,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A50,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>lean concrete (without reinforcement)</v>
       </c>
       <c r="E50">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A50,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A50,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>2150</v>
       </c>
       <c r="F50">
-        <f t="shared" si="12"/>
+        <f>E50</f>
         <v>2150</v>
       </c>
       <c r="G50" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A50,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A50,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H50">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A50,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A50,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0.29598333333333338</v>
       </c>
       <c r="J50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>78.260000000000019</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -10001,39 +10803,39 @@
         <v>0.24</v>
       </c>
       <c r="C51">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A51,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A51,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D51" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A51,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A51,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Polystyrene extruded (XPS)</v>
       </c>
       <c r="E51">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A51,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A51,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="F51">
-        <f t="shared" si="12"/>
+        <f>E51</f>
         <v>30</v>
       </c>
       <c r="G51" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A51,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A51,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H51">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A51,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A51,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>14.5</v>
       </c>
       <c r="I51">
-        <f>B51*F51*H51*B$1/C51/B$1</f>
+        <f t="shared" si="5"/>
         <v>3.4799999999999995</v>
       </c>
       <c r="J51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>3.7439999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -10041,46 +10843,46 @@
         <v>1E-3</v>
       </c>
       <c r="C52">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A52,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A52,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D52" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A52,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A52,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Polyethylene fleece (PE)</v>
       </c>
       <c r="E52">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A52,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A52,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>920</v>
       </c>
       <c r="F52">
-        <f t="shared" si="12"/>
+        <f>E52</f>
         <v>920</v>
       </c>
       <c r="G52" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A52,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A52,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H52">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A52,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
-        <v>5.53</v>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A52,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
+        <v>3.0895000000000001</v>
       </c>
       <c r="I52">
-        <f t="shared" si="13"/>
-        <v>0.16958666666666666</v>
+        <f t="shared" si="5"/>
+        <v>9.4744666666666671E-2</v>
       </c>
       <c r="J52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.47840000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I53" s="2">
         <f>SUM(I47:I52)</f>
-        <v>4.5591533333333327</v>
+        <v>4.4843113333333324</v>
       </c>
       <c r="J53" s="3"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -10088,7 +10890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -10096,7 +10898,7 @@
         <v>128.69999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -10104,15 +10906,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C57">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A57,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A57,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>60</v>
       </c>
       <c r="D57" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A57,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A57,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>civil engineering concrete (without reinforcement)</v>
       </c>
       <c r="E57">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A57,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A57,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>2350</v>
       </c>
       <c r="F57">
@@ -10120,11 +10922,11 @@
         <v>2350</v>
       </c>
       <c r="G57" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A57,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A57,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H57">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A57,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A57,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>1.4E-2</v>
       </c>
       <c r="I57">
@@ -10136,14 +10938,14 @@
         <v>84.684600000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I58" s="2">
         <f>SUM(I57:I57)</f>
         <v>0.15353333333333335</v>
       </c>
       <c r="J58" s="3"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -10151,7 +10953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -10159,7 +10961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -10167,15 +10969,15 @@
         <v>0.15</v>
       </c>
       <c r="C62">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A62,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A62,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>60</v>
       </c>
       <c r="D62" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A62,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A62,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>sand-lime brick</v>
       </c>
       <c r="E62">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A62,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A62,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>1400</v>
       </c>
       <c r="F62">
@@ -10183,11 +10985,11 @@
         <v>1400</v>
       </c>
       <c r="G62" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A62,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A62,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H62">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A62,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A62,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.13800000000000001</v>
       </c>
       <c r="I62">
@@ -10199,14 +11001,14 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I63" s="2">
         <f>SUM(I62:I62)</f>
         <v>0.48300000000000004</v>
       </c>
       <c r="J63" s="3"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -10214,7 +11016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -10222,7 +11024,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -10230,15 +11032,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C67">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A67,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A67,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D67" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A67,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A67,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>gypsum-lime plaster</v>
       </c>
       <c r="E67">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A67,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A67,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>925</v>
       </c>
       <c r="F67">
@@ -10246,11 +11048,11 @@
         <v>925</v>
       </c>
       <c r="G67" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A67,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A67,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H67">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A67,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A67,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.155</v>
       </c>
       <c r="I67">
@@ -10262,7 +11064,7 @@
         <v>9.4072499999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -10270,39 +11072,39 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C68">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A68,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A68,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D68" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A68,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A68,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>gypsum-lime plaster</v>
       </c>
       <c r="E68">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A68,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A68,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>925</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F70" si="15">E68</f>
+        <f>E68</f>
         <v>925</v>
       </c>
       <c r="G68" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A68,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A68,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H68">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A68,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A68,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.155</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68" si="16">B68*F68*H68*B$1/C68/B$1</f>
+        <f>B68*F68*H68*B$1/C68/B$1</f>
         <v>7.1687499999999987E-2</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J71" si="17">F68*B68*B$66*B$1/C68/1000</f>
+        <f>F68*B68*B$66*B$1/C68/1000</f>
         <v>9.4072499999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>0.08</v>
       </c>
@@ -10329,11 +11131,11 @@
         <v>3.6159999999999991E-2</v>
       </c>
       <c r="J69">
-        <f t="shared" si="17"/>
+        <f>F69*B69*B$66*B$1/C69/1000</f>
         <v>3.2544</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -10341,27 +11143,27 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="C70">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A70,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A70,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D70" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A70,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A70,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Glued laminated timber, UF bonded, dry area</v>
       </c>
       <c r="E70">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A70,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A70,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>470</v>
       </c>
       <c r="F70">
-        <f t="shared" si="15"/>
+        <f>E70</f>
         <v>470</v>
       </c>
       <c r="G70" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A70,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A70,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H70">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A70,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A70,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.44600000000000001</v>
       </c>
       <c r="I70">
@@ -10376,7 +11178,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>0.08</v>
       </c>
@@ -10403,18 +11205,18 @@
         <v>3.6159999999999991E-2</v>
       </c>
       <c r="J71">
-        <f t="shared" si="17"/>
+        <f>F71*B71*B$66*B$1/C71/1000</f>
         <v>3.2544</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I72" s="2">
         <f>SUM(I67:I71)</f>
         <v>0.46025166666666661</v>
       </c>
       <c r="J72" s="3"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -10422,7 +11224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -10430,7 +11232,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -10438,15 +11240,15 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C76">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A76,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A76,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>60</v>
       </c>
       <c r="D76" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A76,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A76,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>3-layer solid wood panel, PVAc bonded</v>
       </c>
       <c r="E76">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A76,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A76,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>470</v>
       </c>
       <c r="F76">
@@ -10454,11 +11256,11 @@
         <v>470</v>
       </c>
       <c r="G76" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A76,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A76,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H76">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A76,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A76,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.52300000000000002</v>
       </c>
       <c r="I76">
@@ -10470,7 +11272,7 @@
         <v>4.7211500000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -10478,38 +11280,38 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C77">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A77,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A77,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D77" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A77,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A77,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Polypropylene (PP)</v>
       </c>
       <c r="E77">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A77,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A77,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>910</v>
       </c>
       <c r="F77">
         <v>110</v>
       </c>
       <c r="G77" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A77,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A77,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H77">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A77,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A77,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>5.43</v>
       </c>
       <c r="I77">
-        <f t="shared" ref="I77:I82" si="18">B77*F77*H77*B$1/C77/B$1</f>
+        <f t="shared" ref="I77:I82" si="7">B77*F77*H77*B$1/C77/B$1</f>
         <v>0.49774999999999997</v>
       </c>
       <c r="J77">
-        <f t="shared" ref="J77:J83" si="19">F77*B77*B$75*B$1/C77/1000</f>
+        <f t="shared" ref="J77:J83" si="8">F77*B77*B$75*B$1/C77/1000</f>
         <v>1.5785</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10532,15 +11334,15 @@
         <v>1.04</v>
       </c>
       <c r="I78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0.59366666666666679</v>
       </c>
       <c r="J78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>9.8297500000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -10548,27 +11350,27 @@
         <v>0.26</v>
       </c>
       <c r="C79">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A79,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A79,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D79" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A79,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A79,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Glued laminated timber, UF bonded, dry area</v>
       </c>
       <c r="E79">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A79,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A79,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>470</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:F82" si="20">E79</f>
+        <f>E79</f>
         <v>470</v>
       </c>
       <c r="G79" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A79,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A79,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H79">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A79,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A79,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.44600000000000001</v>
       </c>
       <c r="I79">
@@ -10576,14 +11378,14 @@
         <v>0.3633413333333334</v>
       </c>
       <c r="J79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>70.142800000000008</v>
       </c>
       <c r="K79" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>0.08</v>
       </c>
@@ -10610,14 +11412,14 @@
         <v>0.16271999999999998</v>
       </c>
       <c r="J80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>2.7551999999999999</v>
       </c>
       <c r="K80" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -10625,42 +11427,42 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C81">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A81,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A81,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D81" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A81,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A81,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Glued laminated timber, UF bonded, dry area</v>
       </c>
       <c r="E81">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A81,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A81,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>470</v>
       </c>
       <c r="F81">
-        <f t="shared" si="20"/>
+        <f>E81</f>
         <v>470</v>
       </c>
       <c r="G81" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A81,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A81,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H81">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A81,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A81,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.44600000000000001</v>
       </c>
       <c r="I81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0.4891133333333334</v>
       </c>
       <c r="J81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>18.884600000000002</v>
       </c>
       <c r="K81" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -10668,42 +11470,42 @@
         <v>0.08</v>
       </c>
       <c r="C82">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$167,MATCH($A82,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$170,MATCH($A82,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>30</v>
       </c>
       <c r="D82" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$167,MATCH($A82,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$170,MATCH($A82,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>Glued laminated timber, UF bonded, dry area</v>
       </c>
       <c r="E82">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$167,MATCH($A82,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$170,MATCH($A82,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>470</v>
       </c>
       <c r="F82">
-        <f t="shared" si="20"/>
+        <f>E82</f>
         <v>470</v>
       </c>
       <c r="G82" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$167,MATCH($A82,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$170,MATCH($A82,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v xml:space="preserve">kg </v>
       </c>
       <c r="H82">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$167,MATCH($A82,'[1]Component wise inventories'!$A$2:$A$167,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$170,MATCH($A82,'[2]Component wise inventories'!$A$2:$A$170,0))</f>
         <v>0.44600000000000001</v>
       </c>
       <c r="I82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0.55898666666666663</v>
       </c>
       <c r="J82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>21.5824</v>
       </c>
       <c r="K82" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>0.08</v>
       </c>
@@ -10730,21 +11532,21 @@
         <v>0.16271999999999998</v>
       </c>
       <c r="J83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>2.7551999999999999</v>
       </c>
       <c r="K83" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I84" s="2">
         <f>SUM(I76:I83)</f>
         <v>2.9716871666666673</v>
       </c>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -10752,7 +11554,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -10760,20 +11562,20 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>72</v>
       </c>
       <c r="C87">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$190,MATCH($A87,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$193,MATCH($A87,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>30</v>
       </c>
       <c r="D87" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$190,MATCH($A87,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$193,MATCH($A87,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>Exterior door, wood, aluminium-clad</v>
       </c>
       <c r="E87" t="str">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$190,MATCH($A87,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$193,MATCH($A87,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v xml:space="preserve">- </v>
       </c>
       <c r="F87" t="str">
@@ -10781,11 +11583,11 @@
         <v xml:space="preserve">- </v>
       </c>
       <c r="G87" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$190,MATCH($A87,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$193,MATCH($A87,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="H87">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$190,MATCH($A87,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$193,MATCH($A87,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>77.599999999999994</v>
       </c>
       <c r="I87" s="2">
@@ -10794,7 +11596,7 @@
       </c>
       <c r="K87" s="6"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -10802,7 +11604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>74</v>
       </c>
@@ -10810,20 +11612,20 @@
         <v>158.97999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>73</v>
       </c>
       <c r="C92">
-        <f>INDEX('[1]Component wise inventories'!B$2:B$190,MATCH($A92,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!B$2:B$193,MATCH($A92,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>30</v>
       </c>
       <c r="D92" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$190,MATCH($A92,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$193,MATCH($A92,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</v>
       </c>
       <c r="E92">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$190,MATCH($A92,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$193,MATCH($A92,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>83.4</v>
       </c>
       <c r="F92">
@@ -10831,11 +11633,11 @@
         <v>83.4</v>
       </c>
       <c r="G92" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$190,MATCH($A92,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$193,MATCH($A92,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>kg</v>
       </c>
       <c r="H92">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$190,MATCH($A92,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$193,MATCH($A92,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>0.13719999999999999</v>
       </c>
       <c r="I92">
@@ -10846,7 +11648,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C93">
         <v>30</v>
       </c>
@@ -10873,14 +11675,14 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="I94" s="2">
         <f>SUM(I92:I93)</f>
         <v>1.6229498666666669</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -10888,34 +11690,34 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>80</v>
       </c>
       <c r="B97">
-        <f>[2]Building_info_Viola!$C$17</f>
+        <f>[1]Building_info_Viola!$C$17</f>
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>82</v>
       </c>
       <c r="B98">
-        <f>[2]Building_info_Viola!$C$61</f>
+        <f>[1]Building_info_Viola!$C$61</f>
         <v>350.4</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>81</v>
       </c>
       <c r="D99" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$190,MATCH($A99,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$193,MATCH($A99,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>'market for electricity, low voltage'</v>
       </c>
       <c r="E99">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$190,MATCH($A99,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$193,MATCH($A99,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>0</v>
       </c>
       <c r="F99">
@@ -10923,11 +11725,11 @@
         <v>0</v>
       </c>
       <c r="G99" t="str">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$190,MATCH($A99,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$193,MATCH($A99,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>kWh</v>
       </c>
       <c r="H99">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$190,MATCH($A99,'[1]Component wise inventories'!$A$2:$A$186,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$193,MATCH($A99,'[2]Component wise inventories'!$A$2:$A$189,0))</f>
         <v>4.4990000000000002E-2</v>
       </c>
       <c r="I99" s="2">
@@ -10935,12 +11737,12 @@
         <v>0.89877283105022843</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I100" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -10948,16 +11750,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>83</v>
       </c>
       <c r="B103">
-        <f>[2]Construction_Heating!$B$24</f>
+        <f>[1]Construction_Heating!$B$24</f>
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>90</v>
       </c>
@@ -10965,7 +11767,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>91</v>
       </c>
@@ -10973,11 +11775,11 @@
         <v>84</v>
       </c>
       <c r="D105" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$200,MATCH($B105,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$203,MATCH($B105,'[2]Component wise inventories'!$A$2:$A$203,0))</f>
         <v>heat production, wood chips from industry, at furnace 300kW, state-of-the-art 2014' (megajoule, CH, None)</v>
       </c>
       <c r="E105">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$200,MATCH($B105,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$203,MATCH($B105,'[2]Component wise inventories'!$A$2:$A$203,0))</f>
         <v>0</v>
       </c>
       <c r="F105">
@@ -10985,11 +11787,11 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$200,MATCH($B105,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$203,MATCH($B105,'[2]Component wise inventories'!$A$2:$A$203,0))</f>
         <v>0</v>
       </c>
       <c r="H105">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$200,MATCH($B105,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$203,MATCH($B105,'[2]Component wise inventories'!$A$2:$A$203,0))</f>
         <v>7.1700000000000002E-3</v>
       </c>
       <c r="I105" s="2">
@@ -10997,7 +11799,7 @@
         <v>0.52412700000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -11012,16 +11814,16 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>86</v>
       </c>
       <c r="D109" t="str">
-        <f>INDEX('[1]Component wise inventories'!H$2:H$200,MATCH($B109,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <f>INDEX('[2]Component wise inventories'!H$2:H$203,MATCH($B109,'[2]Component wise inventories'!$A$2:$A$203,0))</f>
         <v>'market for transport, freight, lorry 28 metric ton, fatty acid methyl ester 100%' (ton kilometer, CH, None)</v>
       </c>
       <c r="E109">
-        <f>INDEX('[1]Component wise inventories'!I$2:I$200,MATCH($B109,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <f>INDEX('[2]Component wise inventories'!I$2:I$203,MATCH($B109,'[2]Component wise inventories'!$A$2:$A$203,0))</f>
         <v>0</v>
       </c>
       <c r="F109">
@@ -11029,11 +11831,11 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <f>INDEX('[1]Component wise inventories'!J$2:J$200,MATCH($B109,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <f>INDEX('[2]Component wise inventories'!J$2:J$203,MATCH($B109,'[2]Component wise inventories'!$A$2:$A$203,0))</f>
         <v>0</v>
       </c>
       <c r="H109">
-        <f>INDEX('[1]Component wise inventories'!K$2:K$200,MATCH($B109,'[1]Component wise inventories'!$A$2:$A$200,0))</f>
+        <f>INDEX('[2]Component wise inventories'!K$2:K$203,MATCH($B109,'[2]Component wise inventories'!$A$2:$A$203,0))</f>
         <v>0.11509999999999999</v>
       </c>
       <c r="I109" s="11">
@@ -11041,7 +11843,7 @@
         <v>0.57482544354066778</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B115" s="1" t="s">
         <v>55</v>
       </c>
@@ -11049,7 +11851,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -11061,7 +11863,7 @@
         <v>0.77110333333333347</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>56</v>
       </c>
@@ -11073,7 +11875,7 @@
         <v>3.5315150333333332</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>57</v>
       </c>
@@ -11082,10 +11884,10 @@
       </c>
       <c r="C118" s="4">
         <f>I43+I53</f>
-        <v>6.2024974999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.1276554999999995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>58</v>
       </c>
@@ -11097,7 +11899,7 @@
         <v>1.0967850000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -11109,7 +11911,7 @@
         <v>2.9716871666666673</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>64</v>
       </c>
@@ -11121,7 +11923,7 @@
         <v>1.6229498666666669</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>93</v>
       </c>
@@ -11133,7 +11935,7 @@
         <v>4.6949771689497717E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>65</v>
       </c>
@@ -11145,7 +11947,7 @@
         <v>0.89877283105022843</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>48</v>
       </c>
@@ -11157,7 +11959,7 @@
         <v>0.57482544354066778</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -11168,7 +11970,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>87</v>
       </c>
@@ -11179,7 +11981,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>63</v>
       </c>
@@ -11207,14 +12009,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>55</v>
       </c>
@@ -11222,7 +12024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11234,7 +12036,7 @@
         <v>0.77110333333333347</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -11246,7 +12048,7 @@
         <v>3.5315150333333332</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -11255,10 +12057,10 @@
       </c>
       <c r="C4" s="4">
         <f>'KBOB inventories'!I43+'KBOB inventories'!I53</f>
-        <v>6.2024974999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.1276554999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -11270,7 +12072,7 @@
         <v>1.0967849999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -11282,7 +12084,7 @@
         <v>2.9716871666666673</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -11293,7 +12095,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -11305,7 +12107,7 @@
         <v>0.89877283105022843</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -11317,7 +12119,7 @@
         <v>0.57482544354066778</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -11328,7 +12130,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -11339,7 +12141,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>63</v>
       </c>
